--- a/output/Total_time_range_data/海南省/三亚市_学习考察.xlsx
+++ b/output/Total_time_range_data/海南省/三亚市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,2046 +436,2240 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>223</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>三亚市党政代表团赴江苏省苏州市学习考察</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-07-07</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://lwj.sanya.gov.cn//wljsite/tpxw/202407/f99bddd6cce04be3a161c94f0ec3f4d1.shtml</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['7月6日，三亚市党政代表团到江苏省苏州市学习考察。江苏省委常委、苏州市委书记刘小涛，海南省委常委、三亚市委书记周红波参加。', '在苏州市考察期间，三亚市党政代表团先后到苏州工业园区展示中心、金鸡湖右岸展示中心、兆家巷邻里中心、纳米城、生物医药产业展示中心以及“曲水善湾”乡村振兴美丽吴江样板区项目、英诺赛科（苏州）半导体有限公司、32号街坊、平江历史文化街区等地，学习借鉴科技创新、社区治理、城市规划、生态文明建设、历史文化街区保护提升、夜间经济发展等工作先进经验。', '学习考察过程中，代表团成员边交流心得边探讨研究，纷纷表示，苏州培育优势产业的务实举措、扩大对外开放的成功经验、生态文明建设的战略定力，值得三亚学习借鉴。双方一致认为，苏州与三亚同处对外开放前沿，在因地制宜发展新质生产力上同题共答，希望进一步拓展和深化生物医药及大健康、纳米技术应用及新材料、文旅融合等领域交流合作，推动优势互补、互促共进，加快建设现代化产业体系，共同为全国发展大局作出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>223</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>冯飞主持召开海南省党政代表团赴京津冀学习考察小结座谈会</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-06-15</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/tpxw/202406/376108d25f9440ac8b1fab00205abb7d.shtml</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['冯飞主持召开海南省党政代表团赴京津冀学习考察小结座谈会_图片新闻_三亚市人民政府网', '赴京津冀学习考察期间，海南省党政代表团在北京举行学习考察小结座谈会，交流总结如何学习借鉴京津冀先进经验，进一步开拓思路、促进合作、激励斗志，推动海南高质量发展。省委书记冯飞主持会议并讲话，省长刘小明等省领导出席。', '冯飞指出，海南自由贸易港建设和京津冀协同发展、雄安新区建设是习近平总书记亲自谋划、亲自部署、亲自推动的重大国家战略。当前全国各地竞相发展、百舸争流，发展不进则退、慢进亦退。在京津冀协同发展十周年的关键节点，海南省党政代表团赴京津冀学习考察，目的是学习先进经验、深化省（市）际合作、激发争先斗志。要进一步增强加快推进高质量发展的使命感和紧迫感，总结分析京津冀地区的好经验好做法，有效传导责任压力、激发发展动力，把学习考察成果转化为推进各项工作的实际成效，努力实现全年发展目标，确保在高质量发展上走在全国前列。要进一步抓项目扩投资促消费支撑经济持续增长，海口要发挥省会和自由贸易港核心区作用，全力提升主要经济发展指标；三亚要加快打造国际旅游消费中心核心区，促进消费提质扩容；儋州要深入推进儋洋一体化发展，进一步扩大产业投资规模；琼海、文昌、东方、澄迈等市县要深挖潜力促投资，努力打造全省高质量发展的重要增长点；13个重点园区要充分发挥主力军作用，优服务、促投资，加快补齐投资短板；全省各市县、各部门、各单位要确保上半年推动经济发展时间过半、任务过半。要进一步解放思想、开拓创新、真抓实干，坚持担当作为、求真务实、不做虚功，更加注重“抢人才、抢招商、大开放、大改革”，把人才资源开发放在优先位置，推进招商引资提质增量，集中精力推动自由贸易港关键核心政策落地见效，努力打造新时代中国改革开放的示范。', '与会省领导和省发改委、省工信厅、省商务厅、省住建厅和海口市、三亚市、儋州市相关负责同志等海南省党政代表团成员就如何学习和用好京津冀经验，更好谋划和推动分管领域和本地区、本部门工作进行交流发言。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>223</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>三亚市党政代表团赴浙江省杭州市学习考察</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-07-06</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/jrtt/202407/fb1a08dbb9104b6aa1f254595d7af8bd.shtml</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['7月5日，三亚市党政代表团到浙江省杭州市学习考察。浙江省委副书记、杭州市委书记刘捷与海南省委常委、三亚市委书记周红波举行工作会谈。', '刘捷表示，杭州正在认真学习贯彻习近平总书记考察浙江重要讲话精神，深入实施数字经济创新提质“一号发展工程”，强化教育科技人才基础支撑，努力打造科技成果转移转化首选地。在海南自贸港政策效应带动下，三亚经济高质量发展后劲十足，希望两地进一步深化务实合作，在科技创新、产业发展、文化旅游上实现优势互补、促进共赢发展。', '周红波表示，杭州在推进“千万工程”、数字经济赋能高质量发展、生态文明建设等方面成就显著，展示了中国式现代化美好未来。三亚正深入学习贯彻习近平总书记关于海南工作的系列重要讲话和指示批示精神，加快打造国际旅游胜地和自贸港科创高地，希望两地加强在南繁种业、生物技术、人工智能等领域务实合作，携手共促高质量发展。', '在杭州市考察期间，三亚市党政代表团前往小古城村、浙江创新馆、钱江新城城市阳台、杭州城市大脑运营指挥中心、西溪湿地等地，学习借鉴“千万工程”建设、科技创新、城市大脑及生态文明建设等方面先进经验。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>223</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>海南省党政代表团赴北京学习考察</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-06-15</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/jrtt/202406/554d128833d748559e7ae5c8421cee74.shtml</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['6月14日，海南省党政代表团在北京市学习考察，并召开北京·海南工作交流座谈会，学习北京全面深化改革开放的宝贵经验，深化两地交流合作。北京市委书记尹力，市委副书记、市长殷勇；海南省委书记、省人大常委会主任冯飞，省委副书记、省长刘小明参加有关活动。', '尹力感谢海南长期以来对北京工作的关心和支持。他说，海南是国家南大门，也是最大的经济特区。党的十八大以来，海南全面贯彻习近平总书记关于海南工作的系列重要讲话和重要指示批示精神，紧紧围绕“三区一中心”的战略定位，坚决扛起建设中国特色自由贸易港的使命担当，各项事业全面进步，一系列先进经验值得北京学习借鉴。京琼两地当前都处在推动高水平对外开放向纵深发展的阶段，希望进一步深化各领域务实合作，共同书写高水平开放、高质量发展的时代新篇。加强改革开放交流合作，围绕双方共同关注的改革议题和自贸区、综合保税区建设，强化经验交流和政策互鉴。加强科技创新合作，在航天、低空经济、生物医药、新能源汽车等赛道强化技术交流，协同打造产业集群，培育壮大新质生产力。加强文旅发展合作，共同培育一批文旅特色品牌、热门消费打卡地。加强现代种业合作，促进农业中关村和“南繁硅谷”对接协作，开展种业关键核心技术联合攻关。加强绿色能源合作，围绕培育壮大氢能产业，支持两地企业开展供需对接、配套协作，共同提升产业层次和竞争力。', '冯飞感谢北京给予海南自由贸易港建设的关心厚爱和大力支持。他表示，近年来，北京深入贯彻落实习近平总书记对北京重要讲话精神，加强“四个中心”功能建设，提高“四个服务”水平，城市综合实力和国际影响力不断跃上新台阶，在全面建设社会主义现代化国家进程中持续走在全国前列。在考察学习中深切感受到北京在落实国家战略上的大思路大手笔，在贯彻新发展理念、推动高质量发展上取得的新成就新气象，以及干部群众拼搏奋进、一往无前、奋力开创新时代首都改革开放新局面的蓬勃朝气，这些都值得海南对标学习借鉴。京琼两地来往密切，功能定位互补性强，交流合作潜力巨大，希望北京一如既往支持海南、帮助海南，推动两地以产业合作为主要抓手，建立更加紧密的交流合作机制，在高新技术产业、数字经济、现代服务业、教育医疗等领域深化合作，在种业、深海、航天等产业发展上优势互补，在服务业扩大开放上协同推进，并希望在人才交流合作上得到北京更多指导支持。', '6月14日，海南省党政代表团来到中关村国家自主创新示范区展示中心，了解北京市加快培育和发展新质生产力相关工作进展和成效。', '6月14日，海南省党政代表团来到北京旷视科技有限公司，察看最新研发成果及产品应用展示。', '6月14日，海南省党政代表团来到北京市高级别自动驾驶示范区创新运营中心，察看自动驾驶应用场景。', '6月14日，海南省党政代表团来到大兴国际机场临空经济区自由贸易试验区创新服务中心，了解临空经济区总体发展等情况。', '在京考察期间，海南省党政代表团来到中关村国家自主创新示范区展示中心，了解北京市加快培育和发展新质生产力相关工作进展和成效，走进北京旷视科技有限公司察看最新研发成果及产品应用展示，在北京市高级别自动驾驶示范区创新运营中心察看自动驾驶应用场景，来到大兴国际氢能示范区了解氢能产业发展情况，走进大兴国际机场临空经济区自由贸易试验区创新服务中心了解临空经济区总体发展等情况。', '北京市领导夏林茂、赵磊、穆鹏；海南省领导周红波、罗增斌、巴特尔、倪强、顾刚、尹丽波参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>223</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>三亚市卫健委赴南宁市进行考察学习</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-07-24</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://ws.sanya.gov.cn//wjwsite/ttxw/202307/1df1bbf72fdc4d00a0959ee2edec9617.shtml</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['为进一步推进我市公立医院高质量发展示范项目科学谋划和高效建设工作，充分学习借鉴获批中央财政支持公立医院高质量发展示范项目城市的先进思路和做法，大力提升我市院前急救信息化水平，7月21-22日，三亚市卫生健康委员会党委书记、主任方玉来等一行5人赴南宁市考察学习。', '在公立医院高质量发展示范项目座谈交流会上，南宁市卫健委唐驰主任首先介绍了南宁市卫生健康工作的整体情况，副主任赵红洋和高质量发展专班负责人龚祖康博士分别介绍了南宁市城市医疗集团建设、公立医院改革与高质量发展示范项目的规划及进展情况。随后，双方围绕公立医院改革与高质量发展示范项目的实施内容和计划、资金使用、绩效指标管理等进行探讨交流。', '在南宁市医疗急救中心，郭泽强主任从发展历史、制度建设、体系建设、智慧管理等方面向考察组介绍了南宁市医疗急救中心的整体情况，双方还对院前急救网络建设、120统一指挥调度机制等内容进行了探讨和交流。随后，考察组一行实地参观了南宁急救医疗中心指挥调度中心（南宁市卫生应急指挥中心），详细了解应急指挥运行机制、接处警情况、急救网络建设和工作模式等使用情况，南宁市医疗急救中心打造全域院前急救“一张网”，成为广西首个、全国少数实现设区市120急救服务城乡一体化城市的工作成效给考察组留下了深刻印象。', '方玉来同志强调，南宁市卫生健康委在公立医院改革与高质量发展及医疗急救信息化等方面工作进行了卓有成效的探索、思考和建设，对我市的相关工作具有很好的指导意义，下一步我委要结合三亚卫生健康系统实际情况，做好充分借鉴吸收学习，有效推动我市卫生健康事业更高质量的发展。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>223</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>周红波率队赴合肥咸阳学习考察</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://syipb.sanya.gov.cn//tzcjjsite/zxzx/202311/8073cb724581498dbc376be537ca19c3.shtml</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['11月2日至4日，海南省委常委、三亚市委书记周红波率队赴安徽省合肥市、陕西省咸阳市学习考察，学经验、拓视野、寻合作，携手推进科技创新发展，为国家实现高水平科技自立自强作出应有贡献。', '作为中国长三角城市群副中心城市，合肥是国家重要的科研教育基地、现代制造业基地和综合交通枢纽。考察团来到中国科学院合肥物质科学研究院，参观全超导托卡马克核聚变实验装置，学习大科学装置谋划、建设、运营等方面的成功经验；走进中国科学院量子信息与量子科技创新研究院，了解量子科学研究和相关产业发展情况；考察中国声谷和科大讯飞股份有限公司，了解基地产业环境完善、孵化培育创新等情况，体验基地企业在人工智能领域的创新产品和科研成果。', '咸阳地处中国几何版图中心，是关中——天水经济区的核心板块、西安咸阳国际化大都市的核心区。考察团前往杨凌农业高新技术产业示范区，学习农业科技创新、成果示范推广、国际交流合作等方面的经验做法；走进西北农林科技大学，观摩旱作节水、节肥、减药等关键栽培技术；在西安交通大学中国西部科技创新港校区，考察智慧学镇建设及运营管理工作。', '为期三天的学习考察，行程紧凑、主题突出、内容丰富。考察团一路看、一路学，触摸合肥、咸阳创新发展的强劲脉搏，对两地的创新生态、创造能力、开放活力，以及坚持创新驱动发展的拼劲、韧劲、闯劲有了更为直观的感受。大家一致表示，将在学以致用上下功夫，进一步推动三亚高质量发展，更好支撑和服务海南自贸港建设。', '在学习考察过程中，周红波积极推介海南自贸港政策，详细介绍三亚经济社会发展情况和崖州湾科技城南繁、深海产业发展态势，向合肥、咸阳的科技创新主体发出诚挚邀请。他说，作为海南自贸港建设的前沿阵地和重要窗口，三亚正锚定全省“一本三基四梁八柱”战略框架，加快打造国际旅游胜地和自贸港科创高地，坚定不移推动高质量发展，政策优势明显，开放环境优越，是新时代的创新高地和创业热土。诚邀各类科技创新主体到三亚考察对接、洽谈交流，进一步找准优势互补、互利共赢契合点，共享自贸港发展新机遇。三亚将竭诚提供优质服务，为高质量创新创业提供良好制度支撑和有利外部条件。', '三亚市投资促进局实行企业化管理、市场化运作，负责统筹执行全市招商引资工作，做好招商引资企业和项目服务保障；负责境内外招商联络处与招商平台的组建和管理工作；负责牵头组织全市性重大投资促进活动；统筹全市招商引资推介和新闻宣传...【更多】']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>223</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>周红波主持召开三亚市党政代表团赴长三角学习考察座谈会</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2024-07-07</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/tpxw/202407/3a902ca444294678b3dac16c8f5cfb53.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['赴长三角学习考察期间，三亚市党政代表团在江苏省苏州市召开学习考察座谈会，交流总结学习借鉴长三角区域中心城市建设发展先进经验，进一步开拓思路、凝聚共识、激励干劲，推动三亚高质量发展。省委常委、市委书记周红波主持会议并讲话。', '周红波指出，城市是推动高质量发展、创造高品质生活的重要载体。要深入学习贯彻习近平总书记关于城市工作的重要论述，坚持以新发展理念统领三亚城市建设发展全局，高水平打造国际旅游胜地和自贸港科创高地，当好自贸港建设标杆和转型发展示范。要正视差距不足，增强学习先进的思想自觉行动自觉，认真学习借鉴先进地区的好经验好做法，进一步解放思想、开拓视野、更新理念，高标准高质量推进城市建设发展各项工作。要把握重点关键，坚持以人民为中心，倾听民声、尊重民意、顺应民心，积极践行全过程人民民主，探索“众人的事情由众人商量”基层治理新路径；坚持系统观念，合理安排生产、生活、生态空间，坚持走内涵式、集约型、绿色化的高质量发展路子，让城市更加宜居、宜业、宜游；坚持做精做细，用绣花般的细心、耐心和巧心，打通城市管理的“最后一公里”，不断提升城市精细化管理水平；坚持久久为功，保持历史耐心，发扬钉钉子精神，一张蓝图绘到底，一任接着一任干；坚持党建引领，充分发挥基层党组织战斗堡垒作用和党员先锋模范作用，引领群众形成推动发展合力，推进基层治理体系和治理能力现代化。要坚持学以致用，结合三亚实际，推进改革创新，做到举一反三，切实将考察成果转化为推动三亚高质量发展的新思路、新举措。', '与会市领导和各区（育才生态区）、市资规局、市旅文局、市住建局等相关单位及崖州湾科技城管理局、三亚中央商务区管理局负责同志就如何学好用好长三角区域中心城市经验，更好谋划和推动分管领域和本区、本部门工作进行交流发言。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>223</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>临高县住建局赴三亚市学习考察瓶装液化石油气统一车辆配送工作</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2024-06-04</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://zj.sanya.gov.cn//zjjsite/tpxw/202406/e50d5ba7aa2f4d67af5824e03510a98a.shtml</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['临高县住建局赴三亚市学习考察瓶装液化石油气统一车辆配送工作_图片新闻_ 三亚市住房和城乡建设局', '5月28日，临高县住建局党组成员、副局长陈晓冰一行9人到三亚市学习考察瓶装液化石油气配送工作。三亚市住建局市政建设科一级主任科员唐铁葵及相关工作人员陪同考察，三亚市液化石油气协会秘书长蔡求史、三亚通泰供气有限公司站长唐闻化等相关单位代表参与座谈交流。', '考察组实地考察了三亚通泰供气有限公司供气站和三亚市智慧燃气监管平台，查看了配送专用电动正三轮车车辆情况，了解了瓶装液化石油气配送服务安全管理规范、智慧燃气监管平台建设思路以及运维管理和应用等经验做法，并就瓶装液化石油气安全管理新思路、新方法、新途径等内容与有关单位进行了交流和研讨。', '三亚市智慧燃气监管平台通过“一瓶一码”对气瓶全流程监管，实现瓶装液化石油气“来源可查、去向可追、责任可究”，同时还实现对三级供气站点、送气工及瓶装液化石油气用户等监督检查的闭环管理。', '近年来，三亚市瓶装液化石油气行业管理形势持续向好，取得了三个“率先”成绩，即在全省率先出台瓶装液化石油气配送服务管理办法、率先取消用户自提、率先实行统一车辆配送。值得一提的是，', '月（三亚市）瓶装液化石油气统一配送和智慧燃气监管平台受到海南省住建厅认可，作为优秀经验做法向全省各市县推广学习。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>223</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>三亚市热作中心组织南田农场东风分公司到中国热科院和世界热带水果之窗考察学习</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-12-18</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://ny.sanya.gov.cn//nyjsite/gzdt/202312/61a6ef880fb14d2d86334ebaf03fe0cf.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['三亚市热作中心组织南田农场东风分公司到中国热科院和世界热带水果之窗考察学习_工作动态_ 三亚市农业农村局', '为了贯彻落实省委省政府、省农业农村厅，三市市委市政府提出的发展“新奇特优”热带水果和世界同纬度热带水果的指示精神，也为了贯彻落实省委省政府、市委市政府关于减少赤田水库流域水生态治理，调整种植结构，逐步提升赤田水库水质，同时充分利用有限土地发展林下经济，增加农民收入，我中心组织赤田水库二级保护区即南田农场东风分公司的种植户于12月14日—15日到位于儋州市的中国热科院品种资源研究所及其试验场以及琼海市世界热带水果之窗学习考察参观芒果品种资源、新奇特优、世界同纬度水果及林下经济作物和药材类作物，通过课堂及现场学习，拓宽大家的视野，提高大家对发展新奇特优水果的热情，破解我市热作生产芒果一品独大，且又面临经济效益天花板的颈瓶难题。来自东风分公司种植户共44人参加了此次参观学习。培训学习得到了中国热带农业科学院品种资源研究所高爱平研究员、罗雄博士等有关专家以及琼海市热作中心戴俊、林晴光等几位高级农艺师的大力支持。', '来自东风分公司种植户共44人参加了此次参观学习。培训学习得到了中国热带农业科学院品种资源研究所高爱平研究员、罗雄博士等有关专家以及琼海市热作中心戴俊、林晴光等几位高级农艺师的大力支持。', '罗睿雄博士先在室内课堂给大家介绍了世界各国的芒果和新奇特优水果导，然后又带着大家到品种基地和试验基地参观并介绍了该所的品种资源圃和试验品种，释伽果、冰淇淋果、嘉宝果等等。', '第二天上午，该所的袁浪兴同志又带着大家参观了以南药等中草药试验种植基地，并热心地向大家一一介绍了各种药材和功效，并耐心地一一解答了学员的提问。中午又赶到琼海用完午餐，又急急忙忙前往世界热带水果之窗参观考察了该基地的世界各种新奇特热带水果，琼海热作中心戴俊副主任、高级农艺师、林晴光高级农艺师等也给大家介绍一些水果的特点、味道，市场效益等。', '16日上午，又带着参加学习的学员参观了琼海市大顺农场榴莲蜜种植基地并听取了该基地技术员就榴莲蜜的市场效益、前景展望及相关管理技术的介绍。学员们在结束学习考察后都感到学习的时间太短了，很多东西都来不及仔细了解，但又觉得这趟学习太值了，一部分学员当场买了一些种苗带回家试种，打开了种新作物品种的新思路，为今后赤田水库种植结构调整打下了一定的基础。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>223</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>三亚市考察团赴鲁粤考察学习</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-02-25</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/lddt/202302/9cae3aeee0f046e3bfc2390f187aa336.shtml</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['2月18日至23日，省委常委、市委书记周红波率领三亚市考察团（以下简称“考察团”）赴山东省威海市、青岛市，广东省珠海市等地，就城市建设、产业转型、科技创新、文旅融合、口岸监管等内容进行实地考察，学习先进经验做法，进一步解放思想、更新观念、开阔视野，谋划加快推进三亚高质量发展的新思路新举措。', '在山东期间，考察团分别到威海市规划展览馆、环翠区鲸园街道社会治理创新中心、富泰华精密工业（威海）有限公司、威高集团、东浦湾房车营地、那香海旅游度假区、天鹅湖客栈、南海新区奥林匹克中心以及中国海洋大学海洋高等研究院、青岛古镇口核心区展览馆、青岛航空技术产业创新基地、国信集团、青岛港自动化码头等地考察。', '在广东期间，考察团分别到珠海大剧院、珠海规划展览馆、格力电器股份有限公司、珠海中心大厦、横琴粤澳深度合作区展示厅、横琴口岸、粤澳合作中医药科技产业园、珠海太空中心等地考察。', '每到一处，考察团成员认真察看，与相关负责人深入交流，详细了解城市建设、科技创新、产业转型、文旅融合、生物医药、基层治理、招商引资、项目推介等情况，结合三亚工作进行了深入思考，找差距、谋出路、谈发展。', '考察团表示，这次考察行程紧凑，内容丰富，获益匪浅，不但开阔了眼界，解放了思想，理清了思路，还看到了与先进地区的差距，将结合此次考察学习，对标先进，高点定位，大力提升工作标准和水平，全力做好各项工作。要进一步提振干事创业的精气神，以时不我待的紧迫感，抢抓发展机遇，勇于攻坚克难，狠抓工作落实，推动三亚经济社会高质量发展跑出“加速度”。要强化与各省、市的合作交流，充分发挥自贸港优势，创新合作工作机制，推动在产业合作、资源联动、市场开发等方面加强合作，共同将发展“蛋糕”做大，实现互利共赢。要坚持学以致用，强化创新驱动，聚焦南繁硅谷、深海科技和文旅融合，全面优化产业培育和转型升级，奋力做好“种业振兴”“经略海洋”“旅游胜地”大文章；全面提升城市规划建设治理水平，加大招商引智力度，推进园区高质量发展，强化资源要素保障，加快发展方式转变，加快打造“六个标杆”、建设“六个三亚”，当好自贸港建设的标杆和转型发展的示范，为建设具有世界影响力的中国特色自由贸易港作出新的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>223</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>三亚市考察团赴鄂湘考察学习</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-06-08</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/tpxw/202306/60af30fe18c44f4d868564332381f1c2.shtml</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['6月5日至7日，省委常委、市委书记周红波率领三亚市考察团（以下简称“考察团”）到湖北省武汉市、湖南省长沙市，学习考察科技创新、城市建设、产业发展、文旅融合、夜间经济等领域先进经验，推进深化友好合作，共谋发展共赢愿景。', '考察团深入华中农业大学湖北洪山实验室、武汉理工大学材料复合新技术国家重点实验室、中科院武汉植物园光谷园区、岳麓山实验室集聚区（农科院片区）、杂交水稻国家重点实验室、袁隆平农业高科技股份有限公司等地，详细了解科技创新、平台建设、产业发展等情况，表示要深化与高校、科研院所和企业的合作，围绕高水平建设自贸港科创高地，依托区位优势、资源优势和自贸港政策优势，进一步建立健全工作体制机制，在联合开展科技创新、人才交流和培养、科技成果转化等方面取得制度集成创新成果，构建产学研用深度融合的创新体系，推动形成开展种业和深海科技创新的强大合力，为突破种源“卡脖子”技术、实现海洋科技高水平自立自强扛起三亚担当、作出三亚贡献。', '在湖南期间，考察团分别到马栏山视频文创产业园、湘江欢乐城、太平老街、长沙文和友、岳麓书院等地考察，详细了解文化创意、文旅融合、夜间经济等产业发展情况，表示要深入挖掘三亚文化资源，大力发展文化创意产业，坚持以文塑旅、以旅彰文，完善文化和旅游融合发展的体制机制，推动文化和旅游更广范围、更深层次、更高水平融合发展，不断提高旅游发展的质量和综合效益。要强化夜间经济产品设计和创新，着力打造特色鲜明、体验性强、吸引力足的夜间消费场景，丰富夜间消费业态，不断满足市民和游客夜间消费需求，激活城市“夜经济”。', '考察期间，考察团分别与武汉市、长沙市有关党政领导进行深入交流，双方希望充分发挥各自优势，进一步开辟合作新途径、拓展合作新空间、丰富合作新内涵，不断加强开放对接、谋实产业合作、完善对接机制，扎实推进各领域、多方位的交流合作，共同谱写合作共赢新篇章。', '考察期间，考察团还到武汉新城展示中心学习城市建设经验，深入三一集团有限公司开展产业合作交流。考察团表示，这次考察重点突出，内容丰富，进一步开拓了眼界、增进了交流、促进了合作，还理清了差距，要深入学习先进经验和成功做法，把学习考察成果转化为推动三亚经济社会高质量发展的强大动力和具体行动。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>223</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>三亚市考察团赴鲁粤考察学习周红波率队</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-02-25</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://syipb.sanya.gov.cn//tzcjjsite/ywq/202302/9197d4690f2444d2a6cf6d5f172a9c71.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['2月18日至23日,省委常委、市委书记周红波率领三亚市考察团(以下简称“考察团”)赴山东省威海市、青岛市,广东省珠海市等地,就城市建设、产业转型、科技创新、文旅融合、口岸监管等内容进行实地考察,学习先进经验做法,进一步解放思想、更新观念、开阔视野,谋划加快推进三亚高质量发展的新思路新举措。', '在山东期间,考察团分别到威海市规划展览馆、环翠区鲸园街道社会治理创新中心、富泰华精密工业(威海)有限公司、威高集团、东浦湾房车营地、那香海旅游度假区、天鹅湖客栈、南海新区奥林匹克中心以及中国海洋大学海洋高等研究院、青岛古镇口核心区展览馆、青岛航空技术产业创新基地、国信集团、青岛港自动化码头等地考察。', '在广东期间,考察团分别到珠海大剧院、珠海规划展览馆、格力电器股份有限公司、珠海中心大厦、横琴粤澳深度合作区展示厅、横琴口岸、粤澳合作中医药科技产业园、珠海太空中心等地考察。', '每到一处,考察团成员认真察看,与相关负责人深入交流,详细了解城市建设、科技创新、产业转型、文旅融合、生物医药、基层治理、招商引资、项目推介等情况,结合三亚工作进行了深入思考,找差距、谋出路、谈发展。', '考察团表示,这次考察行程紧凑,内容丰富,获益匪浅,不但开阔了眼界,解放了思想,理清了思路,还看到了与先进地区的差距,将结合此次考察学习,对标先进,高点定位,大力提升工作标准和水平,全力做好各项工作。要进一步提振干事创业的精气神,以时不我待的紧迫感,抢抓发展机遇,勇于攻坚克难,狠抓工作落实,推动三亚经济社会高质量发展跑出“加速度”。要强化与各省、市的合作交流,充分发挥自贸港优势,创新合作工作机制,推动在产业合作、资源联动、市场开发等方面加强合作,共同将发展“蛋糕”做大,实现互利共赢。要坚持学以致用,强化创新驱动,聚焦南繁硅谷、深海科技和文旅融合,全面优化产业培育和转型升级,奋力做好“种业振兴”“经略海洋”“旅游胜地”大文章;全面提升城市规划建设治理水平,加大招商引智力度,推进园区高质量发展,强化资源要素保障,加快发展方式转变,加快打造“六个标杆”、建设“六个三亚”,当好自贸港建设的标杆和转型发展的示范,为建设具有世界影响力的中国特色自由贸易港作出新的贡献。', '三亚市投资促进局实行企业化管理、市场化运作，负责统筹执行全市招商引资工作，做好招商引资企业和项目服务保障；负责境内外招商联络处与招商平台的组建和管理工作；负责牵头组织全市性重大投资促进活动；统筹全市招商引资推介和新闻宣传...【更多】']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>223</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>海南省考察团第二团赴福建考察学习</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2018-04-20</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/lddt/201804/6c8f2e9a778f4fcf9cba52114a8e6050.shtml</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['根据省委统一安排，4月16日至18日，海南省考察团第二团到福建考察学习。图为4月16日，在中国（福建）自由贸易试验区福州片区，海南省省长沈晓明在听取工作人员介绍福州物联网产业展示平台的相关情况。宋国强摄', '为深入贯彻落实习近平总书记在庆祝海南建省办经济特区30周年大会上的重要讲话精神，积极建设自由贸易试验区和逐步探索、稳步推进中国特色自由贸易港，根据省委统一安排，4月16日至18日，海南省考察团第二团到福建考察学习。琼闽两省于16日举行了工作座谈会，福建省委书记于伟国、省长唐登杰，海南省省长沈晓明参加并讲话。', '于伟国提出，双方要在深化改革开放、自贸试验区建设、生态文明建设、统筹城乡发展、推进特色现代农业等方面，携手共创改革发展新局面。唐登杰在会上介绍了福建省情和自贸试验区建设情况。沈晓明说，习近平总书记的重要讲话为海南改革开放发展指明了前进方向、注入了强大动力，我们备受鼓舞，也深感责任重大。这次来闽，就是学习福建在自贸区建设等方面的先进经验，希望琼闽加强交流与合作。', '制度创新是自贸区建设的核心内容，也是本次考察学习的重点。考察团先后到福建国际贸易单一窗口、福州自贸区综合服务大厅、平潭行政服务中心等，了解深化“放管服”改革、优化营商环境等方面成果。沈晓明说，自贸区建设关键是服务企业、发展企业，单一窗口是推进自贸区投资便利化的一项重要举措。在福州自贸区综合服务大厅，一张同时写了注册号、组织机构代码、税务登记证号等3个号码的全国第一张“三证合一”营业执照引发热议。沈晓明指出，改革需要讲究方法策略，要学习福建在推进“一照一码”登记制度中寻找“最大公约数”等改革方法。', '打造更高层次、更高水平的开放型经济是自贸区建设的重要任务之一。考察团先后到福州物联网产业展示平台、福州保税港区，平潭台湾创业园，厦门观音山国际商务运营区、国际会展中心、海天码头、国际邮轮中心和鼓浪屿等地，考察自贸区内物联网、会展、邮轮、旅游和总部经济等新兴产业发展。沈晓明指出，培育新动能、填补房地产调控留下的空白要靠新兴产业，要学习厦门重视高新技术产业培育，尤其是推进“大众创业、万众创新”，培育更多根植于本地的企业，同时重视招商选资。', '人才是第一资源，建设自贸区要聚四方之才。考察团每到一处都详细询问开发主体和人才引进情况。沈晓明指出，培育市场主体、科学规划管控、强化人才队伍建设对于推进海南自贸区建设十分迫切，要通过各种渠道引进各类人才，学习福建“专业人才做专业的事”的经验，围绕产业和项目需求，与国内外一流企业和团队合作。', '考察期间，沈晓明还特别关注厦门城市更新，仔细观看环岛公路两旁的绿化风景和城市风貌，并走访古街古巷。沈晓明说，一些有特色的旧城区、老房子留有城市发展印记、积累了文化底蕴，是城市居民的“乡愁”，只要建筑风貌和谐、居民生活有保障，就可以保留下来并发展成为旅游景点。而新建的建筑也可以很好地体现传统文化，例如建成不到10年的筼筜书院古色古香，很好地融入了厦门城市风格。', '考察前后，考察团分别举行了动员会和总结会，每天晚上召开会议交流考察学习心得和体会。沈晓明强调，我们要全力以赴贯彻落实好习近平总书记和党中央赋予海南的新使命，积极建设自由贸易试验区和逐步探索、稳步推进中国特色自由贸易港。建设自贸区，要努力实现推动经济社会持续高质量发展、用自贸区政策解决过去解决不了的问题、提高企业和人民群众的获得感、改革开放的突破为进一步发展扫除体制机制障碍等目标。他认为，海南改革开放既要对标世界先进水平，也要向兄弟省份学习，福建自贸区有许多经验值得海南借鉴，特别是一届接着一届干、“一张蓝图干到底”的政风；用好守好每一寸土地，为子孙后代留下宝贵资源的政绩观；直面挑战、百折不挠、善抓机遇、创闯敢试的精神。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>223</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>海南省考察团在广东自由贸易试验区考察学习</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2018-04-20</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/jrtt/201804/b4b58f4c73b34378a762c8ca909058c6.shtml</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['4月17日至19日,海南省考察团第一团在中国(广东)自由贸易试验区考察学习,广东省委书记李希、海南省委书记刘赐贵参加有关活动。图为4月17日考察团在广州南沙新区考察学习。李英挺摄', '连日来,省委组织11个考察团分赴全国11个自贸区考察学习。4月17日至19日,第一团赴广州南沙新区、珠海横琴、深圳前海蛇口考察学习中国(广东)自由贸易试验区建设以及广州市和珠海、深圳两个经济特区的发展经验。期间,两省在广州召开座谈会,就进一步学习贯彻习近平总书记重要讲话精神,深化两省合作,共商改革发展进行交流。广东省委书记李希、海南省委书记刘赐贵出席座谈会并参加有关活动。广东省委副书记、广州市委书记任学锋介绍情况并全程参加考察。', '李希代表广东省委、省政府对海南长期以来给予广东经济社会发展的大力支持表示感谢。他指出,习近平总书记出席庆祝海南建省办经济特区30周年大会并发表重要讲话,充分肯定经济特区建设的历史功绩,对新时代深化改革、扩大开放提出明确要求。总书记对海南的重要指示要求对广东同样具有重大的历史意义和现实意义,海南改革发展的历史性机遇也是广东的重大机遇,两省深化交流合作站在了新的历史起点上、蕴含着前所未有的巨大潜力。我们要认真贯彻落实好总书记的重要讲话精神,自觉扛起沉甸甸的历史责任,把深化改革扩大开放的工作扎扎实实抓好。', '李希说,海南深入贯彻习近平新时代中国特色社会主义思想,推动经济社会发展取得了令人瞩目的成绩,广东要认真学习借鉴海南的好经验好做法。当前,广东正深入学习贯彻习近平新时代中国特色社会主义思想和党的十九大精神,认真落实总书记参加全国两会广东代表团审议时的重要讲话精神。希望两省在以习近平同志为核心的党中央坚强领导下,进一步深化各领域交流合作,在更高水平上实现互促共进。一是在改革创新上互学互鉴,加强在自贸区建设等方面的交流合作。二是充分发挥博鳌亚洲论坛、广交会等重大平台作用,加强粤港澳大湾区建设的对接合作,携手提升对外开放水平。三是深化重点领域和重点产业交流合作,共同做大做强特色优势产业。四是建立更加紧密的交流合作机制,更好促进两省互利共赢发展。', '刘赐贵在座谈会上对广东省委、省政府多年来给予海南工作的大力支持和对此次考察的周到安排表示衷心感谢。他说,在新时代支持海南全面深化改革开放,是习近平总书记亲自谋划、亲自部署、亲自推动的重大国家战略。特别是明确支持海南在全岛建设自由贸易试验区,逐步探索、稳步推进中国特色自由贸易港建设,为海南改革开放发展指明了方向、注入了强大动力,对新时代经济特区提出了明确要求,也向世界宣示了我国继续深化改革开放的坚定决心和鲜明态度。这些都饱含着习近平总书记和党中央对经济特区、对海南的厚爱与期望,我们深感振奋、备受鼓舞,同时也深感责任重大。海南愿与广东一道,以舍我其谁的使命感和只争朝夕的紧迫感,进一步发扬特区精神,加快推进自由贸易试验区建设,更好担当起新时代全面深化改革开放的新使命。', '刘赐贵表示,广东是改革开放的排头兵、先行地、实验区,为我国深化改革开放提供了很多宝贵经验。考察团此行将认真学习、汲取广东在自贸区建设等各方面的好经验好做法,下一步还将组成“小分队”,就专项问题学习请教,真正学深学透。衷心希望广东在海南新一轮改革开放中给予更多的指导和支持,同时继续深化两省重点领域合作,实现互利共赢。', '在两天半的时间里,考察团马不停蹄考察了广州、珠海、深圳三地18个点位。同时,利用晚上时间召开工作座谈会,交流学习体会,研讨推进自由贸易试验区建设的具体举措。一个个特色鲜明的项目、一项项改革创新的举措、一片片蓬勃发展的新区,让考察团成员们深受触动、获益匪浅。', '在广州,考察团先后来到环球贸易中心、周大福国际金融中心、南沙港二期码头和邮轮游艇文化基地等地,考察琶洲互联网创新集聚区、天河区中央商务区、广东自贸区广州南沙新区片区建设,了解广州在自贸区建设、总部经济、现代服务业、互联网产业和科技创新发展等方面的情况。特别吸引大家的是,广东自贸区广州南沙新区片区着力探索可复制推广的改革创新经验,3年来累计形成了376项创新成果,其中19项在全国推广,90项在全省推广,有力促进了贸易投资便利化。其中,跨境电商保税进口额从0.3亿元迅速增长到去年的72亿元、占全国1/6。刘赐贵指出,这些以体制机制改革促开放的经验,非常值得海南学习借鉴。', '在珠海,考察团走进横琴新区,考察新区规划建设、国际知识产权交易中心、横琴·澳门青年创业谷、长隆海洋王国等情况。“知识产权交易成果的转化有没有跟踪?”“运用效果如何?”刘赐贵对考察团成员指出,在学习借鉴知识产权交易平台的经验时,要注意通过大数据跟踪应用情况,推动知识产权更好转化,服务实体经济。他说,中央支持海南设立国际能源、航运、大宗商品、产权、股权、碳排放权等交易场所,我们要充分运用政策优势,勇于开拓、大胆试验、不拘一格、创新探索,真正把中央赋予海南的政策用好用足。', '在深圳,考察团走访了腾讯公司、南方科技大学等地,学习“互联网+”应用、高层次创新人才培养和科技创新等方面的先进经验。考察团还来到前海蛇口自贸片区,考察前海新区规划建设、跨境电商和免税购物、港交所前海联合交易中心、招商局蛇口展示中心等情况。尤其是前海蛇口片区实行“比特区还特”的先行先试政策,累计推出358项制度创新成果,全国首创或领先133项,在贸易投资便利化、金融开放创新、法治创新、事中事后监管、人才管理等改革上取得突破,得到了考察团成员的一致赞赏。考察中,刘赐贵十分关注自贸区与当地群众的关系。他强调,在海南自贸区建设中,要坚持以人民为中心的发展思想,让百姓共享发展成果,给百姓带来实惠,并作出相应的制度化安排。', '广东省委常委、深圳市委书记王伟中,广东省委常委、秘书长江凌,副省长欧阳卫民,广州市市长温国辉,以及海南省委常委、秘书长胡光辉,省政协副主席史贻云参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>223</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>三亚市发改委考察组赴南宁市考察学习</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2021-03-02</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://fg.sanya.gov.cn//fgwsite/tpxw/202103/1d77f99123a042248a9dfe54425b17c3.shtml</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['3月1日，三亚市发展和改革委员会副主任林鹏和金鑫带队到南宁市考察学习投资管理、项目策划、项目审批、项目推进等领域的先进经验和成果，考察学习五象新区在园区开发建设和自贸区建设方面取得的成就和先进做法。 上午考察组到南宁市发改委学习，围绕考察主题进行座谈交流。南宁市发改委党组书记、主任丁伟，党组成员、副主任贺大州参加座谈会，并对三亚市发改委考察组的到来表示欢迎。 丁伟系统介绍了南宁市发改委基本情况和近年来工作中逐步形成的强化“三个认识”、勇于“四个担当”、坚持“三维统一”、遵循“四个一定”的南宁发改精神，详细介绍了投资工作方面的工作机制，特别是在投资推进过程中加强督导、建立项目全生命周期的信息管理系统等方面的先进经验。 林鹏代表三亚市发改委党组书记、主任陈明表达了对南宁市发改委的问候，并对南宁市发改委的热情安排表示感谢。他说，南宁市在发展改革领域有很多务实创新的举措，在投资领域成绩斐然，希望能够充分吸收好的经验做法，解决三亚在某些领域存在的问题。 下午考察组到南宁市五象新区考察学习新区建设情况和自贸区建设情况，考察了广西文化艺术中心项目、玉洞大道项目，并与新区管委会发改投促局副局长黄舟宁及相关部门座谈交流。', '林鹏表示，此次考察学习，无论是南宁市的城市建设还是项目投资管理，都有很好的经验值得学习，要在有限的考察学习时间中开拓眼界，将南宁市各方面的先进经验做法带回三亚，充分吸收其中的优点和长处，弥补我们的弱项和短板，真正使得我们的各项工作上水平。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>223</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>周红波率队赴深圳市学习考察</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2022-07-13</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/lddt/202207/8737a5f6ac6042ec82d8e08a4a55c361.shtml</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['7月9日至12日，省委常委、市委书记周红波率队赴深圳市学习考察。考察团一行先后前往正威国际集团、招商局集团、深创投集团、华润集团、深圳市工商联（总商会）、华大集团等企业、单位进行学习考察，实地了解各企业在科技创新、科创投资、城市更新、水系治理、生命科学等领域的前沿性项目研发和运行情况，并开展交流合作座谈。', '招商局集团党委副书记、总经理胡建华，华润集团党委副书记、总经理王崔军，深创投集团党委书记、董事长倪泽望，正威国际集团董事局主席王文银，深圳市工商联（总商会）主席（会长）、研祥集团董事局主席陈志列，华大集团董事长汪建等企业家参加相关交流合作座谈会。', '座谈会上，周红波代表三亚市委、市政府对各企业长期以来给予三亚经济社会发展的关注和支持表示感谢。他指出，在海南建设自由贸易港是习近平总书记亲自谋划、亲自部署、亲自推动的改革开放重大举措。过去4年，习近平总书记多次亲临海南考察指导，对海南自贸港建设作出重要指示批示，为海南发展擘画了宏伟蓝图。三亚认真贯彻落实习近平总书记关于海南工作的系列重要讲话和指示批示精神，正按照海南省第八次党代会的部署要求，全面落实“一本三基四梁八柱”战略框架，推进自贸港各项政策落地实施，推进打造“六个标杆”、建设“六个三亚”，当好转型发展的示范，高水平打造国际旅游胜地和自由贸易港科创高地，奋力打造海南自由贸易港建设新标杆。', '周红波指出，三亚区位优势明显，资源禀赋优越，随着海南自贸港建设的加快推进，正逐渐成为投资兴业的热土。希望各企业抢抓机遇，深化与三亚的务实合作，聚焦“一中心、一城、一区、三重点”，聚焦四大主导产业和南繁、深海两个未来产业，将优质资源导入三亚，在南繁种业、深海科技、产业金融、生物医药、城市更新、水系治理等方面实现更大范围、更宽领域、更高层次的合作，携手实现互利共赢，共同为加快建设具有世界影响力的中国特色自由贸易港作出新的更大的贡献。', '各企业纷纷表示，海南自贸港政策优势明显，十分看好海南、三亚未来的发展前景，将积极服务和融入海南自贸港建设，切实扛起企业的政治责任与使命担当，牢牢把握自贸港建设历史机遇，不断深化与三亚的交流合作，依托三亚优势，加大投资力度，助力三亚打造国际旅游胜地和自由贸易港科创高地，推动经济社会高质量发展，携手书写海南自贸港建设的新篇章。', '在深圳期间，考察团一行前往大沙河生态长廊（示范段）、深圳人才公园、左岸科技公园、深圳市工程生物产业创新中心、深圳湾实验室等地学习考察，实地了解深圳市生态文明建设、科技创新产业、高科技人才引进等工作。周红波要求，各相关部门要认真学习深圳市创新举措和经验做法，结合三亚实际，进一步拓展高质量发展思路，持续深化体制机制创新，不断释放自贸港政策红利，优化营商环境，加速产业落地，赋能改革发展，推动转型发展、提质升级，实现高质量发展。', '考察期间，考察团共同见证了中船系统工程院、602院海南公司、招商三亚深海公司在招商局集团签署三亚深海科技城中船C1、C5地块合作意向协议。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>223</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>周红波率队赴上海市学习考察</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2021-06-16</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://swj.sanya.gov.cn//swjsite/tpxw/202106/02dbe47451744b59bba1b571d6f8d572.shtml</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['6月7日至9日，省委常委、市委书记周红波率三亚市有关部门赴上海市学习考察。袁永东摄', '为贯彻落实省委书记沈晓明调研三亚经济社会发展时的有关指示要求，推动党史学习教育走深走实，6月7日至9日，省委常委、市委书记周红波率三亚市有关部门赴上海市学习考察。考察团一行结合正在开展的党史学习教育，重温党的历史、追寻党的初心，回望上海改革开放史，深入学习上海在城市精细化管理、自由贸易试验区建设等方面的好经验好做法，积极争取上海先进医疗、教育资源支持，对接推动重点投资项目尽快落地，把党史学习教育成果转化为推动三亚经济社会发展的强大动力。上海市委常委、中国（上海）自由贸易试验区临港新片区党工委书记、管委会常务副主任朱芝松陪同考察。', '为贯彻落实省委书记沈晓明调研三亚经济社会发展时的有关指示要求，推动党史学习教育走深走实，', '上海是中国共产党的诞生地。习近平总书记指出，上海党的一大会址、嘉兴南湖红船是我们党梦想起航的地方。我们党从这里诞生，从这里出征，从这里走向全国执政，这里是我们党的根脉。考察团一行怀着无比崇敬的心情，参观全新开放的中共一大纪念馆，观摩“伟大的开端——中国共产党创建历史陈列”展览，瞻仰中共一大会议室原址、一大代表群体铜像，回顾建党历史，重温红色记忆，汲取奋进力量。一件件珍贵文物、一张张历史照片，情景再现了中国共产党初创时的那段峥嵘岁月和走过的百年奋斗历程，让考察团成员真切感受到了我们党为中国人民谋幸福、为中华民族谋复兴的初心和使命。大家一致表示，要深入学习领会习近平总书记在瞻仰中共一大会址时的重要讲话精神，不忘初心、牢记使命，进一步树牢“四个意识”、坚定“四个自信”、做到“两个维护”，以更加奋发有为的面貌和更加昂扬向上的斗志，落实中央、省委赋予三亚的各项使命任务和工作要求，以“等不得”的紧迫感紧扣“一中心、一城、一区、三重点”工作，助推三亚在海南自由贸易港建设中打造新标杆、取得新成就。', '上海是中国共产党的诞生地。习近平总书记指出，上海党的一大会址、嘉兴南湖红船是我们党梦想起航的地方。我们党从这里诞生，从这里出征，从这里走向全国执政，这里是我们党的根脉。考察团一行怀着无比崇敬的心情，参观全新开放的中共一大纪念馆，观摩', '上海是我国改革开放的重要窗口。作为我国第一个自贸试验区，上海自贸区自2013年设立以来，在投资、贸易、金融等领域先行先试、大胆创新，取得了一系列成果。在上海自贸区临港新片区，周红波一行先后考察了临港新片区展示中心、洋山特殊综合保税区、临港新片区现代服务业开放区等地，了解临港新片区以“6+2”为核心的开放政策，以及在制度创新、投资贸易、科技创新、产城融合等方面取得的丰硕成果。他表示，设立临港新片区是党中央总揽全局，科学决策作出的进一步扩大开放重大战略部署，要充分学习临港新片区的好思路、好经验、好做法，结合三亚实际，勇于创新、敢于突破，不断推动三亚经济社会高质量发展，打造海南自贸港建设新标杆。', '上海于2018年率先实施“一网通办”改革，目前，“一网通办”已成为上海政务服务的标志性品牌。在上海市规划和自然资源局、浦东新区城市运行综合管理中心，周红波详细了解城市智慧管理“一网通办”“一屏观全域、一网管全城”的运行模式，仔细听取上海城市公共空间规划、科技创新、城市建设、民生服务等情况介绍。他要求，有关部门要认真践行“人民城市人民建，人民城市为人民”重要理念，学习借鉴上海在利用先进信息化技术、简化行政审批手续、提升城市精细化管理等方面的先进理念、先进做法，扎实推进城市规划建设管理提升三年行动，着力提升城市精细化管理水平，让城市生活更有温度、更加美好。', '在上海交通大学、上海外国语大学考察时，周红波感谢两所高校长期以来对三亚的支持，希望在已有的扎实合作基础之上，进一步拓展合作范围，建立健全合作机制，搭建协同发展平台，为自贸港建设培养更多的人才。在上海交通大学医学院附属上海儿童医学中心考察时，周红波希望医院将更多优质医疗资源输入三亚，强化对三亚妇幼保健院的指导帮带，促进三亚医疗机构技术水平和管理服务能力的整体提升。三亚将提升服务保障水平，推动合作项目落地落实。', '在沪期间，考察团一行还前往复星集团、上海嘉会国际医院、上海交通大学医学院附属瑞金医院、国家化合物样品库及中国东方航空集团考察交流。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>223</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>海南省党政代表团赴广东学习考察</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2021-05-26</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/lddt/202105/9062de6f4e1b4fa4b6d9787913b79f8e.shtml</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['5月23日至25日，海南省党政代表团在广东学习考察，并与广东省委省政府座谈交流，共商合作发展。图为在粤琼两省领导见证下，广州市政府与海口市政府签署了战略合作框架协议。记者宋国强摄', '5月23日至25日，海南省党政代表团在广东学习考察，并与广东省委省政府座谈交流，共商合作发展。中央政治局委员、广东省委书记李希，省长马兴瑞，省人大常委会主任李玉妹，省政协主席王荣，海南省委书记、省人大常委会主任沈晓明，省长冯飞，省政协主席毛万春，省委副书记李军参加座谈和相关考察活动。', '代表团先后到湛江、广州、珠海等地，实地考察学习港口建设运营、口岸管理、园区开发建设、重点产业发展和城市数字化转型等方面先进经验。', '座谈会听取了两省经济社会发展情况介绍。李希代表广东省委、省政府对海南长期以来给予广东经济社会发展的大力支持表示感谢。他说，近年来粤琼两省来往更加密切，了解越来越深入，合作越来越有成效。进入新发展阶段，习近平总书记、党中央作出的构建新发展格局战略部署为深化两省合作提供了重大机遇和广阔空间。当前，广东正深入学习贯彻习近平总书记对广东重要讲话、重要指示批示精神，扎实抓好“1+1+9”工作部署落实，全力打造新发展格局战略支点，奋力在全面建设社会主义现代化国家新征程中走在全国前列、创造新的辉煌。我们将按照总书记、党中央决策部署，认真学习海南好经验、好做法，携手探索深化区域合作新路径，不断拓展合作广度和深度，共同融入和服务构建新发展格局。一是加强重大战略对接，推动粤港澳大湾区、深圳先行示范区“双区”建设和广州、深圳“双城”联动特别是横琴粤澳深度合作区、前海深港现代服务业合作区建设同海南自贸港建设的联动发展，促进形成优势互补、高质量发展的区域经济布局。二是深化改革开放联动，加强贸易自由化便利化等方面改革互鉴、开放协同，共享互用博鳌亚洲论坛、广交会、高交会等开放平台，携手参与西部陆海新通道建设，深度参与“一带一路”建设，不断塑造开放发展新优势。三是提升科技产业合作水平，聚焦热带农业、海洋产业、航空航天等重点领域进一步促进两省产学研有效衔接、跨区域通力合作，共同推动实现科技自立自强和产业链供应链自主可控。四是拓展国内市场空间，引导企业强化双向投资，拓展文化旅游、购物消费等合作空间，以琼州海峡港航一体化为牵引，带动交通基础设施全方位对接，为畅通国内大循环和联通国内国际双循环提供有力支撑。五是完善合作联动机制，强化广州、深圳、珠海与海口、三亚等重点城市制度化合作，提升湛江与海口常态化合作水平，在深化各层级全方位合作中形成更加紧密的区域合作联动机制。', '沈晓明说，广东深入学习贯彻习近平总书记对广东重要讲话、重要指示批示精神，全面实施粤港澳大湾区建设和深圳先行示范区建设等重大国家战略，奋力实现总书记赋予广东在全面建设社会主义现代化国家新征程中走在全国前列、创造新的辉煌的使命任务。广东的好经验好做法值得海南学习借鉴、消化吸收。近年来，两省交流合作不断拓展，在推动重大国家战略对接、基础设施互联互通、科研平台联合搭建、专家人才资源共享、“一线放开二线管住”联动发展等方面取得了重大进展。我们衷心感谢广东对海南自由贸易港建设、琼州海峡港航一体化、两省科技领域合作、海南人才培养引进和教育卫生事业发展、疫情防控和反走私联防联控等方面给予的大力支持，相信在以习近平同志为核心的党中央坚强领导下，两省高质量发展与合作将开启崭新篇章，战略联动发展将迈出更大步伐、结出丰硕成果。', '广东省领导张硕辅、林克庆、张福海、陈良贤，广州市市长温国辉，海南省领导何忠友、沈丹阳、孙大海、周红波、何西庆、王路、倪强参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>223</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>海口市党政考察团来三亚就崖州湾科技城建设工作进行考察学习</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2021-08-24</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/kjcxw/202108/fe2b09459d9042b28ebce06fd5dc6ed9.shtml</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['海口市党政考察团来三亚 就崖州湾科技城建设工作进行考察学习_科技城新闻_三亚市人民政府网', '8月22日,海口市党政考察团来三亚,就崖州湾科技城建设工作进行考察学习。省委常委、海口市委书记何忠友,省委常委、三亚市委书记周红波参加。', '崖州湾科技城主要由南繁科技城和深海科技城组成,目前以深海科技、南繁科技和科教研发为主导的产业发展已初见成效。考察团一行来到崖州湾科技城产业促进中心,听取科技城总体规划情况介绍,考察了解南繁产业、深海产业规划及相关配套建设情况。', '南繁科技城致力于打造产业化、市场化、专业化、集约化的国家南繁科研基地与国家热带农业科学中心。在海南省崖州湾种子实验室、中科院海南种子创新研究院科研楼及南繁公园项目、海南大学三亚南繁研究院、全球动植物种质资源引进中转基地起步区月亮岛等地,考察团一行听取公共科研平台搭建、种子创制和产业化、完整种业科技创新链构建、生物安全防控能力建设等工作介绍。', '深海科技城重点聚焦深海科技、海洋产业和现代服务三大领域。在深海装备产业园、深海科技创新公共平台等项目现场,考察团一行听取项目建设及产业导入进展情况介绍,详细了解项目后期运营以及深海产业规划研究等方面的有关情况。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>223</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>海南省党政代表团在天津市学习考察</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2019-05-28</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/jrtt/201905/d93718bda73a422289dbd000cd2e3655.shtml</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['5月27日，海南省党政代表团到天津学习考察。图为中共中央政治局委员、天津市委书记李鸿忠，市委副书记、市长张国清陪同海南省委书记、省人大常委会主任刘赐贵，省委副书记、省长沈晓明参观天津滨海新区中关村科技园。王凯摄', '5月27日，海南省党政代表团在天津市学习考察。中共中央政治局委员、天津市委书记李鸿忠，市委副书记、市长张国清，市人大常委会主任段春华，市委副书记阴和俊与海南省委书记、省人大常委会主任刘赐贵，省委副书记、省长沈晓明，省政协主席毛万春参加考察并座谈。', '代表团实地探访天津滨海新区中关村科技园、中新天津生态城智慧中心、新一代运载火箭产业化基地、空客A320天津总装线、海河综合治理改造工程等地，考察了科技创新、智慧城市、产业园区建设、航空航天产业发展、生态文明建设等情况。', '在下午举行的海南·天津工作交流座谈会上，张国清、沈晓明分别介绍了两省市经济社会发展情况，李鸿忠、刘赐贵讲话。', '李鸿忠在讲话中说，海南坚持以习近平新时代中国特色社会主义思想为指导，深入学习贯彻习近平总书记在庆祝海南建省办经济特区30周年大会上的重要讲话精神，坚定不移贯彻落实党中央决策部署，高标准高质量推进全岛建设自贸试验区，积极谋划推动自由贸易港建设，制定一系列重大改革举措，走在全国前列。我们对海南省委、省政府所展现的政治站位和政治担当感到由衷敬佩。当前，我们深入学习贯彻习近平总书记视察天津重要指示精神，牢牢把握京津冀协同发展重大历史机遇，深化供给侧结构性改革，全力推进生态环境建设，培育壮大智能科技产业，坚定不移推动高质量发展。天津将认真学习海南先进经验，加强全方位合作，实现优势互补、共同发展。一是充分发挥天津“一带一路”重要节点优势和天津港服务辐射功能，加强自贸试验区建设、航运物流、商贸服务等合作，共同服务对外开放大局。二是在生态保护上深化交流，共同推动绿色发展。三是加强人才交流合作，发挥天津职教优势，服务海南人才需求。四是深化先进制造、特色农业、旅游、现代服务业等产业对接协作，携手推动经济转型升级。', '刘赐贵表示，去年，习近平总书记发表“4·13”重要讲话后，海南省党政代表团第一时间赴津学习考察。时隔一年，海南省党政代表团再次赴津，天津在推动科技创新发展、建设生态智慧城市、落实生态优先理念、落实京津冀协同发展、自贸试验区先行先试等方面成就让人印象深刻、深受启发，充分体现了天津贯彻习近平总书记系列重要指示精神的坚定决心、重大谋划和突出成效。海南要全面深入学习取经，以更大力度推动新旧动能转换，继续严格调控房地产市场，紧密结合“三区一中心”战略定位和“三大领域”产业定位，加快自由贸易试验区和中国特色自由贸易港建设。琼津两地交往合作密切，刘赐贵就深化两地务实合作提出五点建议：深化两地自贸试验区制度创新经验的交流互鉴；深化深海科技、航空航天、南繁育种、超级计算机、人工智能等科技产业合作，推动海南“五大平台”建设；深化城市规划建设管理合作，借鉴天津智慧城市建设、智能场景应用等经验；深化人才交流，支持帮助海南“聚四方之才”；深化协同服务“一带一路”建设，探索国际经济贸易合作发展新模式。', '天津市领导马顺清、张玉卓、李毅、康义、金湘军、李绍洪，海南省领导毛超峰、张琦、胡光辉、童道驰、许俊、范华平、苻彩香参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>223</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>海口市农业农村局考察团到我市考察学习农村产权服务中心建设情况</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2020-09-07</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://ny.sanya.gov.cn//nyjsite/gzdt/202009/042280a18522400c881b39cdef036d27.shtml</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['海口市农业农村局考察团到我市考察学习农村产权服务中心建设情况_工作动态_三亚市农业农村局', '2020年9月5日,为深入交流农村产权流转交易服务经验,海口市农业农村局局长陈芳、二级调研员苏少雄、农村合作经济管理科科长严清林等一行9人到我市考察学习海南(三亚)农村产权服务中心建设情况,并交流秸秆综合利用经验做法。我市农业农村局副局长董朝周、农村合作经济管理科科长解光增、科技教育科一级主任科员熊先文、业务骨干唐潇英,三亚农业投资集团、三亚科技投资集团和三亚发展控股有限公司有关负责人等先后陪同调研,并在我市农业农村局第一会议室召开座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>223</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>海南省党政代表团在北京市学习考察</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2019-05-30</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/jrtt/201905/9707e0470a6142d5b55f613e94b2a81a.shtml</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['5月29日，海南省党政代表团在北京市考察学习。图为中共中央政治局委员、北京市委书记蔡奇，市委副书记、市长陈吉宁陪同海南省委书记、省人大常委会主任刘赐贵，省委副书记、省长沈晓明参观奥林匹克塔。王凯摄', '5月28日至29日，海南省党政代表团在北京市学习考察。中共中央政治局委员、北京市委书记蔡奇，市委副书记、市长陈吉宁，市人大常委会主任李伟，市政协主席吉林与海南省委书记、省人大常委会主任刘赐贵，省委副书记、省长沈晓明，省政协主席毛万春参加考察并座谈。', '代表团实地考察了北京金融街、北京产权交易所、中关村智造大街、雁栖湖国际会都、奥林匹克塔、北京世园会园区等地，深入了解北京在发展金融业和资本市场、打造创新创业生态链、城市规划建设管理、服务保障重大国际活动等方面的情况。', '在29日上午举行的北京·海南工作交流座谈会上，陈吉宁、沈晓明分别介绍了两省市经济社会发展情况，蔡奇、刘赐贵讲话。', '蔡奇感谢海南省长期以来对北京市工作的关心和支持。他说，海南省已成为我国改革开放的重要窗口。近年来，海南省委、省政府深入学习贯彻习近平总书记对海南重要讲话精神，充分发挥全国最好的生态环境、最大的经济特区、唯一的省域国际旅游岛“三大优势”，推动经济社会各项事业蓬勃发展。海南省的许多好理念、好经验值得学习借鉴。当前，我们深入贯彻落实习近平总书记对北京重要讲话精神，大力加强“四个中心”功能建设、提高“四个服务”水平，抓好“三件大事”，打好三大攻坚战，统筹做好改革发展稳定和改善民生各项工作，不断将全面从严治党引向深入，推动习近平新时代中国特色社会主义思想在京华大地落地生根，形成生动实践。', '蔡奇指出，北京与海南互补性强，合作领域广阔，要进一步发挥双方优势，挖掘合作潜力，促进共赢发展。要共同推动更高水平的扩大开放。北京是全国唯一的服务业扩大开放综合试点城市，海南省正在推进自由贸易试验区和中国特色自由贸易港建设，博鳌亚洲论坛是具有全球影响力的国际交流平台。要在政策框架内充分探索合作方式，加强制度创新经验的互学互鉴。要携手推动高质量发展。把北京科技智力资源丰富和海南作为我国最大经济特区的优势结合起来，在金融、会展、健康、文化旅游等现代服务业领域开展合作。要认真学习海南生态环境建设的好经验，持续改善首都生态环境。要加强对接沟通，密切往来，加强各个层级互动交流，支持两地企业合作发展。', '刘赐贵表示，北京市四套班子把“四个意识”“四个自信”“两个维护”作为根本政治准则，坚定贯彻习近平总书记对北京重要讲话精神，推动首都建设各项工作取得突出成就，特别是在提升首都核心功能、引领京津冀协同发展、推进产业向高精尖转型、服务保障重大国际活动、以规划引领和生态优先的理念推进城市精细化建设管理等方面的大思路、大手笔和新成就、新气象，让代表团印象深刻、很受启发。当前，海南把深入贯彻习近平总书记“4·13”重要讲话和中央12号文件精神作为首要政治任务，高标准高质量推动全岛自由贸易试验区建设，探索建设中国特色自由贸易港。海南省党政代表团此次赴京学习考察，就是要紧密结合“三区一中心”战略定位和“三大领域”产业定位，以北京为榜样认真学习取经，推动更好贯彻中央重大决策部署，更好服务重大国家战略。京琼两地交流合作基础好、潜力大，希望两省市以“三大领域”为重点深化产业合作，以“五大平台”为重点深化科技创新和教育文化领域合作，借鉴城市规划建设管理和区域协调发展等方面成功经验，并在人才交流合作方面得到北京更多指导支持。', '北京市领导张延昆、林克庆、崔述强、刘伟、庞丽娟、隋振江、卢彦、杨艺文、陈军，市政府秘书长靳伟，海南省领导毛超峰、张琦、胡光辉、童道驰、许俊、范华平、苻彩香参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>223</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>三亚市发改委考察组赴深圳市学习交流</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2022-07-13</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://fg.sanya.gov.cn//fgwsite/tpxw/202207/ec69202dac2149f6b423470d726434e4.shtml</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['7月11日，三亚市发改委到深圳市发改委、深圳市市民服务中心、粤港澳大湾区大数据研究院学习交流城市发展建设、营商环境建设、数字化信息研究应用等方面的先进经验做法。', '当天上午，受委党组书记、主任范维正委托，委党组成员、副主任成刚一行前往深圳市发改委，了解学习深圳市发改委在城市发展建设，项目谋划储备、前期工作推动、项目投融资及专项债等方面先进工作经验，深圳市发改委郑铁军副主任主持召开座谈会，并就以上工作内容进行介绍交流。深圳市发改委投资处、重大处、秘书处、开放处等处室参加。', '圳市市民服务中心、粤港澳大湾区大数据研究院，深入了解学习深圳市在营商环境建设、政务服务平台、数字化信息研究应用等方面的先进经验。', '粤港澳大湾区大数据研究院是按照2018年11月国家信息中心与深圳市人民政府签署战略合作协议要求组建的民办非企业法人机构，注册在河套深港科技创新合作区，深圳市发改委作为行业主管单位，下设咨询中心（数据要素研究中心）、工程中心（算力经济研究中心）、研发中心、投资服务中心、人才发展中心和综合运营中心六个部门。研究院组建以来，聚焦数据、算力、算法三大方向，强化央地协同、产学研协同、粤港澳协同和全要素协同四类机制，全力打造“前沿技术-政策研究-工程落地-产业孵化”四位一体的业务体系。', '该建筑在设计和功能分布上充分体现了开放、亲民的政府形象。行政服务大厅设置145个服务窗口，有30多个主要政府部门受理390多项审批项目，行政服务大厅推行“一站式”服务，建成了具有现场管理监督功能的计算机管理信息系统，32个政府部门将各自的电脑应用系统接入行政服务大厅，供各自的窗口使用，与大厅计算机管理信息系统实时交换数据，行政服务大厅里设有电脑指引系统、免费打复印机等便民设施，市民可以随意出入。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>223</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>海南省党政代表团赴河北雄安新区学习考察</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2019-05-27</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/jrtt/201905/15e9976e516449e7b1aeab77dc22e969.shtml</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['5月26日，海南省党政代表团抵达河北雄安新区学习考察。图为海南省委书记、省人大常委会主任刘赐贵，省委副书记、省长沈晓明在河北省委书记、省人大常委会主任王东峰，省委副书记、省长许勤陪同下参观雄安新区规划展示中心。特派记者王凯摄', '从5月26日起，海南省党政代表团赴北京、天津、河北雄安学习考察。26日，代表团首先来到河北雄安新区，学习借鉴精心谋划推进“千年大计”的创新做法，更好建设海南全岛自由贸易试验区和中国特色自由贸易港。省委书记、省人大常委会主任刘赐贵，省委副书记、省长沈晓明，省政协主席毛万春与河北省委书记、省人大常委会主任王东峰，省委副书记、省长许勤，省政协主席叶冬松参加考察并座谈。', '在雄安新区规划展示中心，代表团深入了解了雄安新区高起点高水平整体规划及建设情况，以及率先应用数字技术、构建智能城市的实践。在大清河片林一区造林项目现场，代表团考察了当地创新植树造林理念、技术、模式和环境，推进高标准打造近自然“千年秀林”的经验。在白洋淀新安北堤木栈道，水清苇绿、飞鸟翔集，代表团实地感受到河北实施山水林田湖草系统修复治理、保护“华北之肾”的成效。', '在晚上召开的海南·河北工作交流座谈会上，刘赐贵表示，人们常说“北有雄安、南有海南”。在习近平总书记亲自谋划、亲自部署、亲自推动下，京津冀协同发展、雄安新区规划建设和海南全面深化改革开放成为重大国家战略，倍受国内外广泛关注，迎来了千载难逢的重大历史机遇。在服务重大国家战略上，河北有很多好经验，特别是在高起点规划、高质量发展、高标准生态环境保护和治理等方面的好做法，尤其值得海南学习借鉴。他就深化两省交流合作提出四点建议：一是形成定期交流机制，在发展思路上互学互鉴，在落实重大国家战略上取长补短，携手为国家发展大局作出更大贡献；二是聚焦园区规划建设、智能城市、产城融合等方面，在城市和园区规划发展上加强交流合作；三是在推进区域协调发展方面加强交流，借鉴河北在重大基础设施一体化建设、基本公共服务共建共享、破除行政壁垒和体制机制障碍等方面的好经验；四是在生态文明建设领域深化交流合作，学习河北系统修复治理经验，加快建设国家生态文明试验区，确保海南生态环境质量只能更好不能变差。', '王东峰代表河北省委、省人大常委会、省政府、省政协和全省人民，向海南省党政代表团表示热烈欢迎。王东峰指出，党的十八大以来，在以习近平同志为核心的党中央坚强领导下，海南省委、省政府始终坚持政治站位，积极践行新发展理念，全面深化改革开放，着力加强生态建设，推动经济社会发展取得显著成效，为我们树立了榜样。习近平总书记对河北知之深、爱之切，党的十八大以来7次视察河北，作出一系列重要指示批示。特别是习近平总书记亲自谋划推动的京津冀协同发展、雄安新区规划建设、北京冬奥会筹办“三件大事”，为河北提供了千载难逢的发展机遇。河北省委、省政府认真学习贯彻习近平总书记重要指示精神和党中央决策部署，自觉当好首都政治“护城河”，全力办好“三件大事”，坚决打好“三大攻坚战”，扎实推动创新发展、绿色发展、高质量发展，不断开创经济强省、美丽河北建设新局面。我们将认真学习借鉴海南省在国际旅游岛建设、生态环境保护、自由贸易试验区和自由贸易港建设、海洋经济发展等方面的宝贵经验，进一步加强两省务实合作，共同推动重大国家战略落地落实。', '省领导毛超峰、张琦、胡光辉、童道驰、许俊、范华平、苻彩香、沈丹阳，河北省领导袁桐利、陈刚、高志立、范照兵、李谦、刘凯参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>223</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>率团在浙江学习考察时沈晓明强调了四个对标学习</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2021-10-25</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://fg.sanya.gov.cn//fgwsite/ldhd/202110/bb8e4585133546649014e574625185d4.shtml</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['率团在浙江学习考察时，沈晓明强调了四个“对标学习”_领导活动_ 三亚市发展和改革委员会', '海南要对标学习浙江落实重大国家战略的先进经验，推动人民共同富裕，争创新时代中国特色社会主义生动范例。', '要对标学习浙江高质量发展的先进经验，促进制度型开放、风险压力测试等方面互动，高质量高标准推进海南自由贸易港建设。', '要对标学习浙江积极探索“绿水青山就是金山银山”的转化路径，坚持绿色发展，扎实推进国家生态文明试验区建设。', '要对标学习“求真务实、诚信和谐、开放图强”的浙江精神，永葆奋进姿态，大力弘扬“敢闯敢试、敢为人先、埋头苦干”的特区精神。', '10月21日至22日，海南省党政代表团在浙江省学习考察，并与浙江省委省政府座谈，深化交流合作，加强战略衔接，携手推进高质量发展。浙江省委书记、省人大常委会主任袁家军，省委副书记、代省长王浩；海南省委书记、省人大常委会主任沈晓明，省委副书记、省长冯飞，省政协主席毛万春，省委副书记李军参加座谈和相关考察活动。', '2021年10月21日，海南省党政代表团与浙江省委省政府在杭州举行座谈会。21日至22日，海南省党政代表团在浙江省学习考察。海南日报特派记者 宋国强 摄', '袁家军对海南省党政代表团来浙考察表示欢迎，并感谢海南长期以来给予浙江改革发展的支持和帮助。他说，近年来，海南深入学习贯彻习近平总书记“4•13”重要讲话和对海南工作的重要指示批示精神，经济社会发展取得历史性成就。我们要学习海南高标准建设自由贸易港、推进高水平对外开放的先进经验，加快转型升级、培育壮大优势产业体系的创新高招，打造一流生态环境、擦亮碧海蓝天生态名片的举措做法，办好民生实事、造福海南百姓的实干担当。当前，浙江正在深入学习贯彻习近平总书记考察浙江重要讲话精神，扎实推进高质量发展建设共同富裕示范区。希望双方在已有合作基础上，进一步拓宽合作领域、深化合作层次、提升合作广度，共同服务构建新发展格局，推动浙江自贸试验区和海南自贸港联动发展，共享互用重要开放平台，合力加强科技攻关；携手共建新发展阶段的海洋强省，推动双方港口加强战略对接，加强海洋产业和市场合作对接，共同提升海洋数字化治理水平；推动多层次交流交往交融，进一步加强政府、人文、人才等方面交流合作，更好促进两省战略对接、各项工作迭代升级，开创“浙琼一家亲”新局面。', '沈晓明对浙江长期以来支持海南经济社会发展表示感谢。他表示，浙江深入学习贯彻习近平总书记关于浙江工作的重要讲话和指示批示精神，忠实践行“八八战略”，奋力打造“重要窗口”，争创社会主义现代化先行省，高质量发展建设共同富裕示范区，不断开辟干在实处、走在前列、勇立潮头的新境界。浙江发展的美好前景、创造的成功经验和各级干部的精神风貌，时刻激励和启发着我们。海南要对标学习浙江落实重大国家战略的先进经验，推动人民共同富裕，争创新时代中国特色社会主义生动范例。要对标学习浙江高质量发展的先进经验，促进制度型开放、风险压力测试等方面互动，高质量高标准推进海南自由贸易港建设。要对标学习浙江积极探索“绿水青山就是金山银山”的转化路径，坚持绿色发展，扎实推进国家生态文明试验区建设。要对标学习“求真务实、诚信和谐、开放图强”的浙江精神，永葆奋进姿态，大力弘扬“敢闯敢试、敢为人先、埋头苦干”的特区精神。', '在浙期间，代表团先后到杭州、宁波等地，考察学习数字城市建设、未来社区建设、重点产业发展、科技创新与成果转化、港口建设运营、重大体育赛事设施建设等方面先进经验。', '2021年10月21日，海南省党政代表团在杭州新华三集团学习考察数字经济及企业在数字化发展', '2021年10月21日，海南省党政代表团学习考察杭州缤纷未来社区建设成果。海南日报特派记者 宋国强 摄', '2021年10月21日，海南省党政代表团学习考察杭州余杭梦栖工业设计小镇规划建设、功能布局及运营情况。海南日报特派记者 宋国强 摄', '浙江省领导彭佳学、陈奕君、梁黎明、高兴夫、马光明，杭州市领导刘忻，宁波市领导裘东耀，浙江大学领导吴朝晖；海南省领导沈丹阳、孙大海、周红波、何西庆、倪强参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>223</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>冯永杰副局长带队陵水县农委考察学习两区划定工作</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2017-11-10</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://ny.sanya.gov.cn//nyjsite/gzdt/201711/3de38a2fc8894cb79aca42da533f0eba.shtml</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['根据《海南省人民政府办公厅关于印发海南省水稻生产功能区和天然橡胶生产保护区划定工作方案的通知》（琼府办【2017】166号）要求，为按要求力争在2019年完成省下达给我市水稻功能保护区6万亩、天然橡胶保护区12万亩的划定任务，11月10日上午，市农业局冯永杰副局长带领局机关种植业科赵小飞科长，经管科陈攀攀，市热作中心王波主任等一行6人到陵水黎族自治县考察学习“两区”划定工作的经验和方法。', '根据《海南省人民政府办公厅关于印发海南省水稻生产功能区和天然橡胶生产保护区划定工作方案的通知》（琼府办【', '陵水黎族自治县农委党组书记、副主任文迅等介绍他们两区划定的工作方法和相关情况，并热情解答了我局提出的疑问，同时就如何解决工作中可能会遇到的问题进行了深度探讨。', '冯永杰副局长表示陵水县的是我省“两区”划定工作的试点市县，陵水县已经先行先试，不仅超前完成工作方案的印发，现在已经开始委托第三方测绘机构开展外业核查等工作。我局要根据省下达给我市的任务，学习借鉴陵水县的经验，结合我市实际，做好预算测算等工作，要在12月5日前制定专项工作方案报市政府，“两区”划定不仅要完成面积任务，还要落实到地块和农户，要以高标准完成“两区”划定任务，为建设美好新海南，做出三亚的表率和担当。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>223</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>天涯区传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://ty.sanya.gov.cn//tyqsite/tpxw/202204/746a125396a14d1ea0bc79f318495587.shtml</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['4月15日,区委常委会召开扩大会议,传达学习了习近平总书记考察海南时的重要讲话精神及省委、市委常委会扩大会议精神,研究部署我区贯彻落实工作。市政府副市长、区委书记黄兴武主持会议并讲话。', '区委副书记、区长陈潇,区人大常委会主任海斌,区政协主席、区委副书记蒲彩勤及区委常委作学习交流发言。', '会议指出,连日来,习近平总书记深入海南实地考察,对加快建设具有世界影响力的中国特色自由贸易港做出了重要指示,这彰显了党中央对海南发展的关心,体现了总书记对海南人民的关怀。全区上下要以“功成不必在我”的精神境界和“功成必定有我”的历史担当,努力把海南自由贸易港建设推上不可逆转的发展轨道,决不辜负党和人民的重托和期待,以优异成绩迎接党的二十大和省第八次党代会胜利召开。 会议强调,一是要把学习宣传贯彻习近平总书记在海南考察时的重要讲话精神作为首要政治任务。各部门一把手要扛起责任,创新学习方式,掀起全区上下学习习近平总书记重要讲话精神热潮。二是要以习近平总书记重要讲话精神为引领,推动天涯新主城区建设再上新台阶。全体干部要以自我革新的精神主动作为,主动应对新发展阶段面临的各种风险挑战,发挥我区交通枢纽门户优势在三亚打造自贸港新标杆中迎头赶上,体现天涯担当。三是要以强有力的政治执行力,扎实推进各领域改革创新。要始终坚持党建引领,积极探索党建工作新模式,打造更多体现天涯特色的党建亮点,为天涯新主城区建设提供坚强政治保障;要抢抓发展机遇,加快重点项目建设,抓好招商引资工作,着力打造一流营商环境;要进一步增强百姓情怀,真正把老百姓的切身利益放在心上;要坚定不移加强生态文明建设,全面践行“绿水青山就是金山银山”的理念;围绕“六个标杆”“六个三亚”目标,落实“三个行动”“三大工程”任务,干在实处、走在前列,着力将天涯区打造成为产城融合的自贸港现代服务业集聚区,成为展现自贸港建设新标杆的示范样板。 会议还分析研判了当前全区疫情防控形势,研究部署下一步防控工作。 会议指出,目前,三亚市疫情防控工作取得了阶段性成效,形势总体趋好,但是全区上下要深刻认识到疫情防控的复杂性、艰巨性和反复性,切实做到思想上高度重视、研判上冷静科学、行动上迅速果断,始终绷紧常态化疫情防控这根弦,持续巩固来之不易的疫情防控成果。一是要继续毫不松懈、聚焦聚力抓好严防疫情输入工作,紧盯机场、车站等重点区域和环节,坚决守好外防输入第一道防线;二是要压紧压实各行各业主体责任,认真落实疫情防控各项要求;三是要及时复盘、总结经验、吸取教训,不断提升疫情防控能力水平。 区四套班子领导,各部委办局(中心)主要负责人,区政府直属各事业单位以及区城投公司和区国资公司、各大社区主要负责人列席会议。', '会议强调,一是要把学习宣传贯彻习近平总书记在海南考察时的重要讲话精神作为首要政治任务。各部门一把手要扛起责任,创新学习方式,掀起全区上下学习习近平总书记重要讲话精神热潮。二是要以习近平总书记重要讲话精神为引领,推动天涯新主城区建设再上新台阶。全体干部要以自我革新的精神主动作为,主动应对新发展阶段面临的各种风险挑战,发挥我区交通枢纽门户优势在三亚打造自贸港新标杆中迎头赶上,体现天涯担当。三是要以强有力的政治执行力,扎实推进各领域改革创新。要始终坚持党建引领,积极探索党建工作新模式,打造更多体现天涯特色的党建亮点,为天涯新主城区建设提供坚强政治保障;要抢抓发展机遇,加快重点项目建设,抓好招商引资工作,着力打造一流营商环境;要进一步增强百姓情怀,真正把老百姓的切身利益放在心上;要坚定不移加强生态文明建设,全面践行“绿水青山就是金山银山”的理念;围绕“六个标杆”“六个三亚”目标,落实“三个行动”“三大工程”任务,干在实处、走在前列,着力将天涯区打造成为产城融合的自贸港现代服务业集聚区,成为展现自贸港建设新标杆的示范样板。', '二是要以习近平总书记重要讲话精神为引领,推动天涯新主城区建设再上新台阶。全体干部要以自我革新的精神主动作为,主动应对新发展阶段面临的各种风险挑战,发挥我区交通枢纽门户优势在三亚打造自贸港新标杆中迎头赶上,体现天涯担当。', '要以强有力的政治执行力,扎实推进各领域改革创新。要始终坚持党建引领,积极探索党建工作新模式,打造更多体现天涯特色的党建亮点,为天涯新主城区建设提供坚强政治保障;要抢抓发展机遇,加快重点项目建设,抓好招商引资工作,着力打造一流营商环境;要进一步增强百姓情怀,真正把老百姓的切身利益放在心上;要坚定不移加强生态文明建设,全面践行“绿水青山就是金山银山”的理念;围绕“六个标杆”“六个三亚”目标,落实“三个行动”“三大工程”任务,干在实处、走在前列,着力将天涯区打造成为产城融合的自贸港现代服务业集聚区,成为展现自贸港建设新标杆的示范样板。', '会议指出,目前,三亚市疫情防控工作取得了阶段性成效,形势总体趋好,但是全区上下要深刻认识到疫情防控的复杂性、艰巨性和反复性,切实做到思想上高度重视、研判上冷静科学、行动上迅速果断,始终绷紧常态化疫情防控这根弦,持续巩固来之不易的疫情防控成果。一是要继续毫不松懈、聚焦聚力抓好严防疫情输入工作,紧盯机场、车站等重点区域和环节,坚决守好外防输入第一道防线;二是要压紧压实各行各业主体责任,认真落实疫情防控各项要求;三是要及时复盘、总结经验、吸取教训,不断提升疫情防控能力水平。', '区四套班子领导,各部委办局(中心)主要负责人,区政府直属各事业单位以及区城投公司和区国资公司、各大社区主要负责人列席会议。']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>223</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>三亚市卫健委赴北京安贞医院进行考察学习</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-04-29</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://ws.sanya.gov.cn//wjwsite/gzdt/202304/fe18ee57c35345c18de9f8029d51c51c.shtml</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['为扎实推进"健康三亚"建设，进一步提高我市在心血管内科和心胸外科方面的诊疗服务水平，加强我市心肺血管专家人才队伍建设，4月28日，三亚市卫生健康委员会党委书记、主任方玉来等一行5人赴北京安贞医院考察学习。北京安贞医院党委书记纪智礼、副院长侯晓彤参加座谈。', '座谈会上，方玉来介绍了三亚市医疗卫生工作整体情况及考察学习目的内容，王天松介绍了三亚中心医院的基本情况及心血管诊疗能力现状，北京安贞医院侯晓彤副院长从历史沿革、发展规划、学科建设、学科平台、医疗概况、领域型学科等方面对安贞医院进行了详细的介绍。随后，双方就心血管疾病临床救治技术发展、心血管5G远程诊疗技术、人员培训及后续交流合作，以及心血管疾病防治社区体系构建等内容进行了深入交流。', '座谈会后，考察组还现场学习了安贞医院心脏外科中心、心血管重大疾病防治协同创新中心等医疗诊治中心及运营管理、临床专科建设和医院文化建设情况等，方玉来强调，安贞医院在心血管疾病防治等方面具有国内领军地位，后续合作交流将为健康三亚发展注入强大动力，为实现大病不出岛目标提供坚实支撑。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>223</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>我局组团赴南京考察学习农村集体产权制度改革工作</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2019-03-25</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://ny.sanya.gov.cn//nyjsite/gzdt/201903/e3e3a9bb7b6745f88299ecaaa03b7640.shtml</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['根据市委、市政府要求,在我局党组书记黄兴武、局长马业仲的工作安排下,3月13日至15日,由副局长董朝周率经管科、各区农业农村局和育才生态区经济发展局主要负责人赴南京市考察学习农村集体产权制度改革工作的先进经验。', '南京市作为农村集体产权制度改革国家级层面的先遣队、排头兵,探出了成功的路子,取得了巨大成效,不仅受到了国家农业农村部的高度肯定,而且已闻名全国,成了各地争相取经学习的“示范基地”。南京市按照“集体发展、农民增收、管理民主”的总目标,稳步推进“确权、赋能、搞活”,在农村集体产权制度改革中做到家底清晰、身份清晰、权责清晰和集体经济发展路径清晰,取得了积极成效。', '南京市农业农村局经管处负责人详细介绍了相关工作的基本做法和经验启示。考察团一行通过听介绍、看资料、问情况,还就有关问题与南京有关部门负责人进行了探讨交流,深入细致地了解南京农村集体产权制度改革和“三资”监管综合平台管理运营情况。通过对标先进、查找差距、理清思路,边考察边思谋推进我市农村集体产权制度改革的有效路径和方法策略,进一步找准了下步的工作思路和突破口。', '在南京市农业农村局分管农村集体产权制度改革工作的副局长陪同下,分别参观了南京市江宁区秣陵街道和胜太社区的先进经验做法。', '在南京市江宁区秣陵街道负责人介绍了秣陵街道深化农村集体产权制度改革做法和“三资”监管综合平台的开发、管理和运营情况。', '在南京江宁区秣陵街道胜太社区,考察团一边查看档案资料,一边详细听取了社区清产核资、成员身份确认和经营性资产股份制改革等情况介绍,对社区操作流程、工作做法等作了深入的了解,董朝周副局长等考察团成员详细询问了有关成员身份确认中对外嫁女的认定、股权如何设置、如何管理以及股份如何合作、村集体经济发展壮大等具体问题。', '董朝周副局长代表三亚考察团衷心感谢南京市农业农村部门对本次考察工作的高度重视、大力支持和精心安排,对南京市农业农村部门在开展农村集体产权制度改革方面勇于担当、勇于探索、勇于创新的精神表示由衷钦佩,认为南京市农村集体产权制度改革符合工作实际,可操作性强,对三亚全面开展农村集体产权制度改革工作很有启发,值得深入学习和充分借鉴。为了学好用好南京市农村集体产权制度改革工作的好做法好经验,他要求考察团所有同志一定要高度重视此项工作,以高度的责任感和紧迫感,认真学习和借鉴好南京市农村集体产权制度改革的经验做法,在市委、市政府的正确领导下,结合三亚实际,精心组织,扎实推进,把本单位本地区农村集体产权制度改革的各项工作落到实处。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>223</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>促进集团化办学探索教育高质量发展三亚市教育考察团队赴南宁昆明考察学习</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2021-10-14</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://edu.sanya.gov.cn//jyjsite/gzdt/202110/8a1696eaa3ad44238b0a096193bdc880.shtml</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['促进集团化办学，探索教育高质量发展 | 三亚市教育考察团队赴南宁、昆明考察学习_工作动态_三亚市教育局', '为提升教育整体发展水平，根据《三亚市推进学区化集团化办学促进基础教育高质量发展的实施方案》精神，10月9日至12日，三亚市教育局党委委员、市教育研究培训院院长吕锐带领三亚市第一小学、第七小学、实验小学、第九小学管理团队一行15人，赴南宁市、昆明市就集团化办学及课后服务工作进行深度考察学习。', '10月9日上午，考察团来到南宁市滨湖路小学，在学校党委书记谢小燕校长和管理团队的陪同下，考察团参观了校园内梦源、中国园、红色主题文化长廊等，观摩综合科教师每日一练、班级学生诵读及数学展示课。考察团的体育学科老师们还对学校的体育教学、阳光大课间、学生体质健康监测等工作的具体开展、落实情况进行了详细交流讨论。', '随后，滨湖路小学集团领导、考察团全体成员在会议室参加座谈会。谢小燕校长向考察团详细介绍了滨湖路小学集团化办学的基本情况，“四个融合”“五个统一”的一体化管理工作机制，分享了近年来在扩大教育资源、集团化办学等变革中所做的探索，也重点和考察团交流现在“双减“背景下集团化办学如何高质量发展。', '10月9日下午，考察团一行人来到南宁市天桃实验学校教育集团银杉校区，在天桃学校邹南勇校长及管理团队的陪同下，考察团参观了学校平安智慧校园系统、学校角隅文化以及党史学习教育长廊，校园内处处彰显以生为本的办学理念和鲜明的学校文化特色。', '座谈会上，天桃实验学校李振林副校长就南宁市天桃实验学校集团化办学取得的阶段性成果与考察团进行了交流，从“扩大优质教育辐射作用”“形成成熟的集团化办学管理模式”等七个方面与考察团进行了探讨。随后，双方就集团化办学和课后服务中存在的热点、难点问题进行了讨论、交流。', '吕锐表示，天桃实验学校集团化办学经验做法非常具有学习和借鉴意义，考察团要以此为契机勇于探索，努力追赶，助推三亚市基础教育改革，促进区域教育优质均衡发展。', '10月11日上午，考察团一行人来到昆明市盘龙区金康园小学，在金康园党总支书记、李雪菲校长及管理团队的陪同下，在同学们的热情欢迎中，与全体师生参加了升旗仪式，金康园小学积极活泼的精神面貌及学校的良好的氛围给考察团领导与教师留下了深刻印象。在李校长的导引下，考察团一行走进课堂，观摩了五年级英语课堂、美术课堂、班级风采展示，参观了劳动实践基地，观看校园足球比赛。', '实地参观后，考察团一行在学校会议室召开了座谈交流会。金盘区教体局局长夏震、副局长白洁对考察团的到来表示热烈欢迎。莫红梅、蒋荍副校长分别从学校教学、德育工作的实践经验与考察团进行了深入交流与探讨。', '考察团表示，在今后的办学实践中，在课程建设、项目研究、综合实践等多方面将与金康园小学开放共享、互联共生，相互借鉴，取长补短，携手共促学校内涵发展。', '10月11日下午，考察团来到了昆明市盘龙区明通小学，明通教育集团刘毅校长对学校的基本情况、集团化办学思路、育人目标等工作做了详细的介绍。考察团一行在刘校长的引导下走进课堂，实地参观了学校课后服务的开展情况。', '三亚市教育考察团在交流、碰撞中达成共识，下一步要从制度创新、课程供给、教师发展、协同育人等方面，寻找集团学校发展的目标和发力点，真正发挥集团化办学优势，激发办学活力、教师专业发展动力，将深化教育改革落到实处，办好人民群众满意的教育。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>223</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>三亚冬季瓜菜促销考察团学习成熟地区瓜菜基地种植经验</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2018-09-20</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/zwdt/201809/3c1ed9c4ab8c4fbabb90b77d52b3319e.shtml</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['三亚冬季瓜菜促销考察团除考察了解各地市场对三亚瓜菜的需求和品种的选择外，还有另外一个任务，就是考察了解瓜果菜产销成熟地区瓜菜基地种植经验。9月18日，三亚冬季瓜菜促销考察团到长沙县春华镇九龙公司蔬菜基地考察学习其成功经验：市场需要什么瓜菜，或者什么瓜菜价格高，就种植什么样品种的瓜菜，才能卖出好价钱。', '据九龙公司负责人李文明介绍，该公司蔬菜基地占地约300亩，主要以现代设施大棚农业为主，这里种植的蔬菜都是根据时下市场行情来种植的，市场上价位高的品种就是基地要种植的品种，即什么瓜菜市场缺、价格高，基地就种植什么品种的瓜菜。', '三亚日报记者在基地里看到，目前基地种植的品种主要有水瓜、尖椒等瓜菜，工人们正在基地里采摘、包装。据了解，当地目前水瓜的价格每斤1.8元～2.5元，尖椒每斤约6元。', '值得一提的是，该公司也曾在崖州区三更村承包300亩土地种植尖椒等蔬菜，效益可观，亩产收入约8000元～1万元。', '崖州区委书记林有炽表示，崖州区是三亚的农业大区，目前的农业生产还是以传统的生产模式为主，无法满足现代市场的需求。通过此次考察学习，开阔了视野，也看到了现代农业发展的方向。希望崖州区相关部门也要“搭船出海”捕大鱼，采取由九龙公司提供种子、种苗、管理技术和统一收购等合作方式，引导本地农户参加种植；也要了解市场上缺什么瓜菜，什么瓜菜价格高，并种植这些品种的瓜菜，才能卖出好价钱、获得好效益，才能彰显崖州区农业发展的亮点。', '崖州区农林局局长谭诗琪说，在九龙蔬菜基地参观，给崖州区农业发展带来很大的启发和借鉴，将结合崖州实际，挖掘农业发展潜力，种植时下市场上价位好的瓜菜，把崖州区农业板块做大做强，推进城镇化的进程，让老百姓的腰包鼓起来。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>223</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>市林长办一行赴安徽省宣城市考察学习林长制工作</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2022-06-19</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://lyj.sanya.gov.cn//lyjsite/tpxw/202206/69b1916c184e40b3b943ccc212a55e4d.shtml</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['经局党组会研究决定,报请市政府同意,6月14日至17日,市林业局副局长林尤回带队赴安徽省宣城市(无疫区)考察学习林长制工作。', '考察组一行认真听取宣城市各林业部门关于林长制工作开展情况的介绍,双方就森林资源管护、林业产业发展、信息平台建设、新一轮林长制改革等工作进行深入交流。', '考察组一行参观“两山”实践创新基地馆,实地考察泾县马头国有林场、全国林长制改革策源地华川村、灵芝健康小镇、绩溪抽水蓄能电站生态修复示范工程以及清凉峰国家级自然保护区。', '考察组认为,宣城市是2021年度全面推行林长制工作受到国务院督查激励的全国8个市县之一,推行林长制工作经验丰富、措施多元、成效显著,在坚持高位推动、创新制度机制、打通“两山”转化新途径、智慧林业信息化等方面对我市林业工作具有重要的借鉴意义。', '考察组指出,要认真学习宣城市开展林长制工作的先进经验和典型做法,切实提高政治站位,压实责任,在“护绿、增绿、管绿、用绿、活绿”上下功夫,进一步健全完善体制机制,构建林长制信息平台,推进林业高质量发展。要突出生态优势,盘活森林资源,推动产业生态化、生态产业化,找准“绿水青山”向“金山银山”转化路径,建立健全生态产品价值实现机制,努力把林区变景区、田园变风光,实现生态富民。要加强督导,跟踪问效问责,以林长制统筹推进各项林业重点工作,形成齐抓共管的强大合力,为三亚在海南自贸港建设中打造新标杆提供强大绿色保障。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>223</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>三亚传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2022-04-15</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/zyswqdyxx/202204/9d0b715e71634f079d3c8127174be36c.shtml</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['三亚CBD：传达学习习近平总书记考察海南时的重要讲话精神_党员学习_三亚市人民政府网', '4月15日，三亚中央商务区管理局党委会召开扩大会议，传达学习习近平总书记考察海南时的重要讲话精神、省委常委会扩大会议精神及市委常委会扩大会议精神，研究部署园区贯彻落实意见。三亚市副市长、中央商务区管理局党委书记、局长尹承玲主持会议并讲话。', '日，三亚中央商务区管理局党委会召开扩大会议，传达学习习近平总书记考察海南时的重要讲话精神、省委常委会扩大会议精神及市委常委会扩大会议精神，研究部署园区贯彻落实意见。三亚市副市长、中央商务区管理局党委书记、局长尹承玲主持会议并讲话。', '会议指出，习近平总书记的重要讲话，充分体现了以习近平同志为核心的党中央对海南、对三亚的深情厚爱和殷切厚望，园区倍感振奋、深受鼓舞。要把学习贯彻落实习近平总书记重要讲话精神作为首要政治任务，将其作为园区当前和今后一个时期工作的根本遵循和行动指南，转化为促进园区高质量发展的强大动力，以实际行动坚定捍卫“两个确立”，坚决做到“两个维护”，争当海南自贸港园区的优等生，以优异成绩迎接党的二十大胜利召开。', '会议指出，习近平总书记的重要讲话，充分体现了以习近平同志为核心的党中央对海南、对三亚的深情厚爱和殷切厚望，园区倍感振奋、深受鼓舞。要把学习贯彻落实习近平总书记重要讲话精神作为首要政治任务，将其作为园区当前和今后一个时期工作的根本遵循和行动指南，转化为促进园区高质量发展的强大动力，以实际行动坚定捍卫', '会议强调，要以习近平总书记重要讲话精神为指引，牢记殷切嘱托，聚焦“国之大者”，坚决有力推动中央重大决策部署和省委、市委决定要求落地生效，为海南加快建设具有世界影响力的中国特色自由贸易港扛起三亚CBD担当。', '，坚决有力推动中央重大决策部署和省委、市委决定要求落地生效，为海南加快建设具有世界影响力的中国特色自由贸易港扛起三亚', '一是要更好地把握习近平总书记对海南自贸港建设的新定位、新要求，学习学习再学习。结合“查堵点、破难题、促发展”及能力提升建设年等活动，打造学习型党组织，迅速组织学习习近平总书记视察海南时的重要讲话精神，创新载体、丰富形式，在园区掀起新一轮推进全面深化改革开放的热潮。', '一是要更好地把握习近平总书记对海南自贸港建设的新定位、新要求，学习学习再学习。结合', '及能力提升建设年等活动，打造学习型党组织，迅速组织学习习近平总书记视察海南时的重要讲话精神，创新载体、丰富形式，在园区掀起新一轮推进全面深化改革开放的热潮。', '二是要更加完整准确全面贯彻新发展理念，创新创新再创新。管理局上下要主动思考、主动工作，以解决园区发展问题为导向推进工作开展，对“城市、产业、企业、人”有机整体形成系统性思考，统筹推动招商引资、招才引智、楼宇经济等工作发展，以制度集成创新为企业提供优质服务。', '二是要更加完整准确全面贯彻新发展理念，创新创新再创新。管理局上下要主动思考、主动工作，以解决园区发展问题为导向推进工作开展，对', '有机整体形成系统性思考，统筹推动招商引资、招才引智、楼宇经济等工作发展，以制度集成创新为企业提供优质服务。', '三是要更为主动融入“双循环”格局，主动主动再主动。要形成管理局党委班子以上率下，各处室及平台公司负责人以身作则，全体干部职工以坚定信心、“舍我其谁”的志向，全员争分夺秒、主动思考的工作局面。', '格局，主动主动再主动。要形成管理局党委班子以上率下，各处室及平台公司负责人以身作则，全体干部职工以坚定信心、', '四是要以更高的站位胸怀“国之大者”，团结团结再团结。要扎实做好园区战略性功能，齐心协力抓好现代服务业创新集聚区发展，“', '，团结团结再团结。要扎实做好园区战略性功能，齐心协力抓好现代服务业创新集聚区发展，', '，实现园区上下人心更齐、干劲更足、风气更正，努力将三亚CBD打造成为海南自贸港园区的靓丽名片。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>223</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>三亚传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2022-04-21</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/zyswqxw/202204/2fff3a8147ec4930b1471867ffc4721a.shtml</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['三亚CBD：传达学习习近平总书记考察海南时的重要讲话精神_中央商务区新闻_三亚市人民政府网', '4月15日，三亚中央商务区管理局党委会召开扩大会议，传达学习习近平总书记考察海南时的重要讲话精神、省委常委会扩大会议精神及市委常委会扩大会议精神，研究部署园区贯彻落实意见。三亚市副市长、中央商务区管理局党委书记、局长尹承玲主持会议并讲话。', '会议指出，习近平总书记的重要讲话，充分体现了以习近平同志为核心的党中央对海南、对三亚的深情厚爱和殷切厚望，园区倍感振奋、深受鼓舞。要把学习贯彻落实习近平总书记重要讲话精神作为首要政治任务，将其作为园区当前和今后一个时期工作的根本遵循和行动指南，转化为促进园区高质量发展的强大动力，以实际行动坚定捍卫“两个确立”，坚决做到“两个维护”，争当海南自贸港园区的优等生，以优异成绩迎接党的二十大胜利召开。', '会议指出，习近平总书记的重要讲话，充分体现了以习近平同志为核心的党中央对海南、对三亚的深情厚爱和殷切厚望，园区倍感振奋、深受鼓舞。要把学习贯彻落实习近平总书记重要讲话精神作为首要政治任务，将其作为园区当前和今后一个时期工作的根本遵循和行动指南，转化为促进园区高质量发展的强大动力，以实际行动坚定捍卫', '会议强调，要以习近平总书记重要讲话精神为指引，牢记殷切嘱托，聚焦“国之大者”，坚决有力推动中央重大决策部署和省委、市委决定要求落地生效，为海南加快建设具有世界影响力的中国特色自由贸易港扛起三亚CBD担当。', '结合“查堵点、破难题、促发展”及能力提升建设年等活动，打造学习型党组织，迅速组织学习习近平总书记视察海南时的重要讲话精神，创新载体、丰富形式，在园区掀起新一轮推进全面深化改革开放的热潮。', '管理局上下要主动思考、主动工作，以解决园区发展问题为导向推进工作开展，对“城市、产业、企业、人”有机整体形成系统性思考，统筹推动招商引资、招才引智、楼宇经济等工作发展，以制度集成创新为企业提供优质服务。', '要形成管理局党委班子以上率下，各处室及平台公司负责人以身作则，全体干部职工以坚定信心、“舍我其谁”的志向，全员争分夺秒、主动思考的工作局面。', '要形成管理局党委班子以上率下，各处室及平台公司负责人以身作则，全体干部职工以坚定信心、', '要扎实做好园区战略性功能，齐心协力抓好现代服务业创新集聚区发展，“以功成不必在我的精神境界”和“功成必定有我的历史担当”，实现园区上下人心更齐、干劲更足、风气更正，努力将三亚CBD打造成为海南自贸港园区的靓丽名片。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>223</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>考察学习汲取福建省漳州市河长制先进经验</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2018-11-14</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/hzzgzdt/201811/da913e078ad24a1b96d2fe194d7212b9.shtml</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['，市水务局局长、市河长办主任马育红率队赴福建省漳州市考察学习河长制湖长制工作，市环保局、市住建局、市综合行政执法局及各区河长办', '会上，漳州市河长办专职副主任陈进光介绍了漳州市河长制工作的主要做法及经验，生动地讲述河长制湖长制组织体系、河道专管员、“4321”工作法、面对面督办、畜禽养殖治理、“一月督查”、生态审判巡回庭、检察建议书、河道警长制及应急执法队伍建设等内容，并认真仔细地回答我市考察人员提出的问题，为我市进一步推进河长制湖长制工作传授宝贵的借鉴经验。', '马育红表示，非常感谢漳州市河长办提供如此良好学习机会，河长制湖长制工作经验都都非常值得我们学习，如在河道专管员、跟河长去巡河、市委书记亲自抓、与司法部门联动、水电站视频监控、工作督查、微信群分类、发动社会力量、考核工作、农业面源治理、信息化建设等方面。', '考察组先后实地查看九龙江西溪流域花山溪河段整治情况，随后赶往漳州市平和县山格镇观摩学习智慧河长信息化平台及听取平和县山格镇河道专管员队伍建立、管理及考核工作情况，参观', '在考察期间，马育红强调，参加考察人员要带着问题去学习漳州市河长制工作先进经验，认真听讲、勤于交流、不懂就问，并根据自身工作的需要认真做好记录及拷贝相关资料，做到学以致用，敢于创新，为我市河长制工作更上一层楼。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>223</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>市卫健委党委召开理论中心组扩大学习会议传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2022-04-19</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://ws.sanya.gov.cn//wjwsite/wsdj/202204/25c9e576e60840ca819b6b5cc0544f3a.shtml</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['市卫健委党委召开理论中心组(扩大)学习会议,传达学习习近平总书记考察海南时的重要讲话精神_卫生党建_三亚市卫生健康委员会', '市卫健委党委召开理论中心组(扩大)学习会议,传达学习习近平总书记考察海南时的重要讲话精神', '4月18日,市卫健委党委召开理论中心组(扩大)学习会议,传达学习习近平总书记考察海南时的重要讲话精神及省委、市委常委会扩大会议精神,研究贯彻落实措施。市委常委、统战部部长、市卫健委党委书记、主任潘国华主持会议并讲话。', '会议指出,在党的二十大召开前夕,在常态化疫情防控面临严峻考验的特殊时期,在海南自贸港建设的关键时期,习近平总书记再次来海南视察,令人鼓舞、催人奋进。全市卫健系统要把学习贯彻习近平总书记在海南考察时的重要讲话精神作为首要政治任务,与学习贯彻习近平总书记关于海南工作的系列重要讲话和指示批示精神,特别是“4·13”重要讲话精神和《海南自由贸易港法》结合起来,按照市委常委会的部署和要求,牢记殷切嘱托,聚焦“国之大者”,坚决有力推动省委、市委决定要求落地生效,坚定捍卫“两个确立”,坚决做到“两个维护”,努力在海南自贸港建设中打造新标杆。', '会议强调,要坚持以习近平总书记重要讲话精神为指引,贯彻落实市委、市政府的部署要求,围绕“一中心、一城、一区、三重点”,以“三大工程”和“三大行动”为主抓手,统筹抓好疫情防控和经济社会发展,确保提前完成今年卫生健康各项目标任务。要深化医药卫生体制改革,建设与海南自贸港相匹配的公共卫生服务体系,全面提升公共卫生服务能力;要加强医疗质量及专科建设,促进公立医院高质量发展,提高基层医疗机构服务水平;要大力发展医疗健康产业,推动高质量主动健康产业集聚,持续提升中医药服务能力,促进中医药传承创新发展;要强化“一老一小”健康保障,补齐民生短板;要加大高质量人才培育力度,抓好各类卫生健康保障工作。', '会议要求,要坚定不移加强党的建设,以高质量党建引领三亚卫生健康事业高质量发展。深入开展“能力提升建设年”活动,着力提升医疗救治、流行病学调查、核酸检测和院前急救等能力。持之以恒正风肃纪反腐,巩固拓展“作风整顿建设年”成果,结合开展“制度执行年”行动,深入开展医疗卫生工程项目招投标专项整治,不断开创卫生健康系统全面从严治党新局面。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>223</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>三亚市林业局组织学习贯彻习近平总书记考察海南重要讲话精神</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2022-04-15</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://lyj.sanya.gov.cn//lyjsite/zwdtxx/202204/ecb56f4411f041a78062d79681634e6d.shtml</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['4月14日上午,三亚市林业局召开局务会议,迅速传达学习习近平总书记考察海南时的重要讲话精神,部署全市林业系统贯彻落实措施。局党组书记、局长陈积明主持会议并讲话。', '陈积明指出,习近平总书记的重要讲话,充分体现了习近平总书记对海南生态文明建设高度重视,为海南坚持生态立省提供了根本遵循和行动指南,林业系统全体干部职工要把学习贯彻落实习近平总书记重要讲话精神作为当前首要政治任务,以实际行动坚定捍卫“两个确立”,坚决做到“两个维护”,为海南加快建设具有世界影响力的中国特色自由贸易港和展示中国风范的靓丽名片扛起林业担当。', '陈积明强调,要以习近平总书记重要讲话精神为指引,牢固树立“绿水青山就是金山银山”理念,不负总书记的殷切嘱托,要完整准确全面贯彻新发展理念,全力推动林业产业高质量发展。以《三亚市林业产业发展规划(2021-2035年)》为引领,不断优化调整林业产业结构,加大林业产业政策扶持力度,引领支持涉林龙头企业带动我市林木种苗与花卉、经济林、林下经济等产业高质量发展。要敢闯敢试、大胆创新,积极打造美丽三亚生态名片。以城市规划建设管理提升、美丽乡村建设管理提升两个“三年行动”为抓手,加快推进创建国家及省级森林城市、三亚河国家湿地公园智慧监测系统项目和三亚市铁炉港红树林生态修复项目建设,彰显三亚城市特色风貌,完善三亚城市服务功能,打造展示中国风范的美丽三亚生态名片。要牢记“国之大者”,充分挖掘森林生态产品价值。严格贯彻落实省委省政府和市委市政府关于林业碳汇工作的决策部署,积极探索生态产品价值实现新机制,通过推进造林绿化增汇、森林经营增汇、森林保护稳汇和湿地稳碳促汇等举措,构建碳达峰碳中和背景下海南林业事业发展新格局,为建设海南自由贸易港、打造国家生态文明试验区贡献更多的林业力量。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>223</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>常州市委副书记蔡骏率队莅临我市学习考察乡村振兴工作先进经验</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2019-04-22</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://ny.sanya.gov.cn//nyjsite/gzdt/201904/3b2c31513d484ce2ad2dd3c653676656.shtml</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['常州市委副书记蔡骏率队莅临我市学习考察乡村振兴工作先进经验_工作动态_三亚市农业农村局', '4月14日-15日,常州市委副书记、政法委书记蔡骏、常州市政府副市长许峥等一行9人莅临我市学习考察乡村振兴工作经验做法。', '考察团考察了亚龙湾国际玫瑰谷、水稻公园、青塘村、北山村、江苏省南繁基地、奇幻世界共享农庄,现场听取各休闲农业点、南繁基地、美丽乡村的现状及发展规划、建设等情况汇报,逐个了解相关产业发展、农民增收带动等情况。并对企业充分挖掘传统农耕文化和特色农业资源,发展休闲农业农事体验观光旅游,多途径带动村民就业增收给予较高评价。', '考察团认为,美丽乡村依托当地生态环境、风土文化等优势,坚持农旅结合、以旅兴农,做足乡村旅游新业态文章,在基础设施建设、建设理念创新、特色文化打造、政策大力支持等诸多方面,引领农户走上了旅游脱贫致富路,开创旅游脱贫攻坚的新局面。', '陪同本次调研考察的有市政府副秘书长韦迪伟,市农业农村局书记黄兴武、市农业农村局副局长董朝周及吉阳区政府、海棠区政府等相关负责人。', '考察团表示,本次考察学习旨在学习我市乡村振兴工作的成功经验和典型做法,把学习考察的成果努力转化为工作的实际成果,转化为推动工作的具体措施和方法,以更大力度和更实举措来推动常州市乡村振兴加快发展、跨越发展。大家纷纷表示,此次考察,收获丰硕,不虚此行,开拓了视野和思路,对于加快常州市乡村振兴工作,具有很强的借鉴指导意义。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>223</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>三亚市统计局传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2022-04-29</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://tjj.sanya.gov.cn//tjjsite/tpxw/202204/f5cd528f9c7845b8818c1d00c2de98be.shtml</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['2022年4月29日上午,市统计局在局机关大会议室召开党组中心组学习(扩大)会,传达学习习近平总书记在海南考察时重要讲话精神和重要指示精神。局党组书记、局长钟景主持会议。', '会议指出,习近平总书记在海南考察时的重要讲话精神和重要指示,立意高远、思想深刻、内涵丰富,具有很强的思想性、政治性、指导性。全局党员干部要提高政治站位,把学习好、宣传好、贯彻好习近平总书记重要讲话精神作为当前和今后的首要政治任务。', '会议强调,支部各党小组要组织传达学习、认真领会,要将习近平总书记考察海南时的重要讲话精神与“能力提升建设年”活动、习近平新时代中国特色社会主义思想、“4·13讲话”紧密结合,深刻领悟习近平总书记在海南考察时的重要讲话精神内涵,坚定捍卫“两个确立”,坚决做到“两个维护”,不断提升业务能力,增强统计工作本领。局党组成员围绕习近平总书记考察海南时的重要讲话精神展开研讨和交流发言,并结合本职工作提出贯彻落实意见。', '会议还传达学习了省委七届十二次全会精神、《关于推动党史学习教育常态化长效化的意见》等内容。局党组中心组成员、各科室(队、中心)负责人参加学习。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>223</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>三亚市统计局党组书记局长钟景一行赴海口等地考察学习</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2021-05-25</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://tjj.sanya.gov.cn//tjjsite/ttxw/202105/3584eb28d1104f3eacc017c923b43a8c.shtml</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['学党史传承精神，办实事为民服务。三亚市统计局将党史学习教育与统计工作相结合，以“为群众办实事”为契机，5月25日，局党组书记、局长钟景带领三亚市统计局、各区统计局17人赴海口市统计局、澄迈县统计局，就党史学习教育、人员编制、组织架构、统计业务、数据质量、统计执法等工作经验与做法进行考察学习交流。', '在为期一天的考察中，钟景一行先后来到海口市统计局和澄迈县统计局进行考察调研，并开展了座谈会。', '座谈会上，海口市统计局党组书记、局长王善来，澄迈县统计局党组书记、局长陈南，三亚市统计局党组书记、局长钟景分别介绍了海口市、澄迈县、三亚市统计系统的人员编制、组织架构等基本情况。王善来、陈南及海口相关各区统计局局长就统计改革创新、提高统计数据质量、高质量发展统计工作等方面工作分别进行了详细介绍。我局针对各自工作内容与对方人员进行了交流，学习两地在统计工作中的好经验、好做法。', '钟景在学习考察时强调，海口市、澄迈县统计系统的工作经验和先进做法非常值得借鉴学习，要把考察学习内容落到实处。结合党史学习教育，要将“为群众办实事”的理念融入到日常工作的方方面面，继续为相关企业送《统计法》及《告知书》上门，指导企业纳统工作；每月组织全局人员参加“消费助农”活动，走到群众中去，为解决群众困难尽自己的绵薄之力。结合“作风建设年”工作，要发扬“马上办”的工作作风，坚决杜绝懒散的工作作风，并在工作中加以应用创新，真正做到学以致用。', '钟景在学习考察时强调，海口市、澄迈县统计系统的工作经验和先进做法非常值得借鉴学习，要把考察学习内容落到实处。结合党史学习教育，要将']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>223</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>周红波率队赴上海市学习考察学习先进经验深化合作交流推动三亚经济社会高质量发展</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2021-06-10</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://fg.sanya.gov.cn//fgwsite/tpxw/202106/afccb3f6c8ba4dba8f93b33b6703ecdd.shtml</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['周红波率队赴上海市学习考察：学习先进经验 深化合作交流 推动三亚经济社会高质量发展_图片新闻_三亚市发展和改革委员会', '周红波率队赴上海市学习考察：学习先进经验 深化合作交流 推动三亚经济社会高质量发展', '为贯彻落实省委书记沈晓明调研三亚经济社会发展时的有关指示要求，推动党史学习教育走深走实，6月7日至9日，省委常委、市委书记周红波率三亚市有关部门赴上海市学习考察。考察团一行结合正在开展的党史学习教育，重温党的历史、追寻党的初心，回望上海改革开放史，深入学习上海在城市精细化管理、自由贸易试验区建设等方面的好经验好做法，积极争取上海先进医疗、教育资源支持，对接推动重点投资项目尽快落地，把党史学习教育成果转化为推动三亚经济社会发展的强大动力。上海市委常委，中国（上海）自由贸易试验区临港新片区党工委书记、管委会常务副主任朱芝松陪同考察。 上海是中国共产党的诞生地。习近平总书记指出，上海党的一大会址、嘉兴南湖红船是我们党梦想起航的地方。我们党从这里诞生，从这里出征，从这里走向全国执政。这里是我们党的根脉。考察团一行怀着无比崇敬的心情，参观全新开放的中共一大纪念馆，观摩“伟大的开端——中国共产党创建历史陈列”展览，瞻仰中共一大会议室原址、一大代表群体铜像，回顾建党历史，重温红色记忆，汲取奋进力量。一件件珍贵文物、一张张历史照片，情景再现了中国共产党初创时的那段峥嵘岁月和走过的百年奋斗历程，让考察团成员真切感受到了我们党为中国人民谋幸福、为中华民族谋复兴的初心和使命。大家一致表示，要深入学习领会习近平总书记在瞻仰中共一大会址时的重要讲话精神，不忘初心、牢记使命，进一步树牢“四个意识”、坚定“四个自信”、做到“两个维护”，以更加奋发有为的面貌和更加昂扬向上的斗志，落实中央、省委赋予三亚的各项使命任务和工作要求，以“等不得”的紧迫感紧扣“一中心、一城、一区、三重点”工作，助推三亚在海南自由贸易港建设中打造新标杆、取得新成就。', '上海是我国改革开放的重要窗口。作为我国第一个自贸试验区，上海自贸区自2013年设立以来，在投资、贸易、金融等领域先行先试、大胆创新，取得了一系列成果。在上海自贸区临港新片区，周红波一行先后考察了临港新片区展示中心、洋山特殊综合保税区、临港新片区现代服务业开放区等地，了解临港新片区以“6+2”为核心的开放政策，以及在制度创新、投资贸易、科技创新、产城融合等方面取得的丰硕成果。他表示，设立临港新片区是党中央总揽全局，科学决策作出的进一步扩大开放重大战略部署，要充分学习临港新片区的好思路、好经验、好做法，结合三亚实际，勇于创新、敢于突破，不断推动三亚经济社会高质量发展，打造海南自贸港建设新标杆。', '上海于2018年率先实施“一网通办”改革，目前，“一网通办”已成为上海政务服务的标志性品牌。在上海市规划和自然资源局、浦东新区城市运行综合管理中心，周红波详细了解城市智慧管理“一网通办”“一屏观全域、一网管全城”的运行模式，仔细听取上海城市公共空间规划、科技创新、城市建设、民生服务等情况介绍。他要求，有关部门要认真践行“人民城市人民建，人民城市为人民”重要理念，学习借鉴上海在利用先进信息化技术、简化行政审批手续、提升城市精细化管理等方面的先进理念、先进做法，扎实推进城市规划建设管理提升三年行动，着力提升城市精细化管理水平，让城市生活更有温度、更加美好。', '在上海交通大学、上海外国语大学考察时，周红波感谢两所高校长期以来对三亚的支持，希望在已有的扎实合作基础之上，进一步拓展合作范围，建立健全合作机制，搭建协同发展平台，为自贸港建设培养更多的人才。在上海交通大学医学院附属上海儿童医学中心考察时，周红波希望医院将更多优质医疗资源输入三亚，强化对三亚妇幼保健院的指导帮带，促进三亚医疗机构技术水平和管理服务能力的整体提升。三亚将提升服务保障水平，推动合作项目落地落实。', '在沪期间，考察团一行还前往复星集团、上海嘉会国际医院、上海交通大学医学院附属瑞金医院、国家化合物样品库及中国东方航空集团考察交流。 市领导尚林、何世刚、吴海峰参加考察。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>223</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>三亚市发改委党员干部学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2022-04-28</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://fg.sanya.gov.cn//fgwsite/tpxw/202204/bcb82def88f84fa78648b0c10f98be98.shtml</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['三亚市发改委党员干部学习习近平总书记考察海南时的重要讲话精神_图片新闻_三亚市发展和改革委员会', '连日来，三亚市发展改革委持续深入学习宣传贯彻习近平总书记考察海南时的重要讲话精神。习近平总书记的重要讲话充分体现了以习近平同志为核心的党中央对海南、对三亚的深情厚爱和殷切厚望，全委党员干部职工倍感振奋、深受鼓舞、反响热烈。', '大家纷纷表示，将充分认识习近平总书记考察海南的重大意义，要把习近平总书记考察海南时的重要讲话精神贯彻落实到具体工作中、体现到实际行动上，作为当前和今后一个时期三亚发改', '习近平总书记指出，中国人的饭碗要牢牢端在自己手中，就必须把种子牢牢攥在自己手里。要围绕保障粮食安全和重要农产品供给集中攻关，实现种业科技自立自强、种源自主可控，用中国种子保障中国粮食安全。这对粮食主管部门的发改人来说，既是鼓励，也是要求。我们要落实总书记关于种业创新、国家战略科技力量的要求，要为国家种业的自立自强、种业自主可控、粮食安全做出我们应有的贡献。', '作为一名党员干部，当以更高站位、更宽视野，把人生理想融入国家和民族的事业，以“功成不必在我”的精神境界和“功成必定有我”的历史担当，以昂扬的奋斗姿态和脚踏实地的实际行动，努力提高个人本领，将学习重要讲话与“能力提升建设年”等活动结合起来，与加强和改进发改建设结合起来，着力解决“本领恐慌”、能力不足问题，不断提高能力水平，在海南全面深化改革开放和自由贸易港建设中作出发改贡献。', '习近平总书记考察海南时的重要讲话充分体现了习近平总书记对海南、对三亚的深情厚爱和殷切厚望，我们深受鼓舞。体改科将认真学习贯彻习近平总书记重要讲话精神，将其作为在当前和今后一个时期工作的根本遵循和行动指南，围绕深入区域合作、落实海南自由贸易港放宽市场准入特别措施、聚焦制度集成创新、强化制度执行，深化法治学习宣传教育等，扎实做好各项工作，为推动三亚在海南自贸港建设中当好排头兵、打造新标杆贡献力量。', '三亚价格认证工作要顺应大势，在以习近平同志为核心的党中央周围，坚决贯彻执行省委省政府、市委市政府决策部署，明确方向，理清思路，找准站位，走出新路子，走进新时代，继续发扬“敢闯敢试，敢人为先、埋头苦干”的精神，把握历史时机，大胆试、大胆闯、坚决破、坚决改，不断激发战略活力。在价格认证实际工作过程中，认证人员要把精力投入到工作中，把心思花费到工作上，把心血倾注到工作里，加强力度，最大限度地发挥自身能力，锐意进取、勤勉敬业，落实好涉纪、涉案、成本监审等价格认证职能工作，用实际行动打造海南自由贸易港新标杆，为加快建设具有世界影响力的中国特色自由贸易港贡献力量。', '价格认证工作要顺应大势，在以习近平同志为核心的党中央周围，坚决贯彻执行省委省政府、市委市政府决策部署，明确方向，理清思路，找准站位，走出新路子，走进新时代，继续发扬“敢闯敢试，敢人为先、埋头苦干”的精神，把握历史时机，大胆试、大胆闯、坚决破、坚决改，不断激发战略活力。', '在价格认证实际工作过程中，认证人员要把精力投入到工作中，把心思花费到工作上，把心血倾注到工作里，加强力度，最大限度地发挥自身能力，锐意进取、勤勉敬业，落实好涉纪、涉案、成本监审等价格认证职能工作，', '用实际行动打造海南自由贸易港新标杆，为加快建设具有世界影响力的中国特色自由贸易港贡献力量。', '我们要牢记习近平总书记的殷切厚望，中国共产党员要始终走在前列，实施更多有温度的举措，落实更多暖民心的行动，用心用情用力解决好三亚市民的“菜篮子”急难愁盼问题，以“功成不必在我”的精神境界和“功成必定有我”的历史担当，做好三亚“菜篮子”保供稳价工作。', '三亚是习近平总书记考察海南时的第一站，我作为三亚一名普通公务员深受鼓舞，我将充分认识习近平总书记考察海南的重大意义，把习近平总书记考察海南时的重要讲话精神作为当前和今后一个时期工作的根本遵循和行动指南。当前，我在优化我市营商环境一线（问题受理组）工作。我个人认为营商环境是海南自由贸易港建设的基础工作，它的好坏直接影响企业的发展，工作性质极其重要。所以，我要当好发现问题的“眼睛”，宣传推广的“嘴巴”，排忧解难的“出气筒”，为打造营商环境“升级版”，不断提高市场主体和人民群众获得感、满意度贡献自己的力量。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>223</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>海南省党政代表团赴广东学习考察共同谋划推动粤琼相向而行相向发展</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2023-06-18</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/tpxw/202306/f3c4e2c59f94432c95f38105f8b59879.shtml</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['海南省党政代表团赴广东学习考察 共同谋划推动粤琼相向而行相向发展_图片新闻_三亚市人民政府网', '6月16日至17日，海南省党政代表团在广东学习考察，并与广东省委、省政府举行广东·海南两省合作交流座谈会，共商深化合作、相向发展事宜。广东省委书记黄坤明，省长王伟中，省委副书记、深圳市委书记孟凡利；海南省委书记冯飞，省长刘小明，省委副书记、副省长沈丹阳参加座谈和相关考察活动。', '黄坤明代表广东省委、省政府对海南省党政代表团表示欢迎，对海南长期以来给予广东工作的支持和帮助表示感谢。他说，近年来，海南深入学习贯彻习近平总书记对海南系列重要讲话和重要指示批示精神，推动经济社会发展取得新成就，展示出新时代改革开放的新气象，许多好经验好做法值得广东学习借鉴。粤琼两省地缘相近、人缘相亲，历史渊源深厚。随着粤港澳大湾区和海南自由贸易港建设的深入推进，两省多领域合作日益深化，实现互促共进、互利共赢发展前景广阔。', '黄坤明指出，4月10日至13日，习近平总书记亲临广东视察，寄望广东在推进中国式现代化建设中走在前列，并对徐闻港和琼州海峡建设提出明确要求，对于广东深化与海南的交流合作具有重大指导意义。我们要深入学习领会，与海南相向而行、相向发展，携手共同推进高质量发展，积极服务和融入新发展格局。广东将着力推动粤港澳大湾区和海南自贸港联动发展，把湛江作为重要连接点和支撑点，深化改革联动、开放联动、区域联动，促进博鳌亚洲论坛、广交会、高交会等开放平台共建共享，共同打造面向全球的资源配置和要素集聚高地，不断增强畅通国内大循环和联通国内国际双循环的功能；加快推进琼州海峡港航一体化和湛海铁路等交通基础设施建设，全力打造徐闻港水陆交通运输综合枢纽，确保琼州海峡交通安全顺畅运行，积极谋划建设琼州海峡一体化高质量发展示范区，牵引带动两省深化合作、联动发展；加强生物医药、特色船舶、海上风电、深远海养殖装备、滨海旅游等产业协作，促进两省科研院校、企业开展协同创新，强化特色优质产品产销对接、市场开拓，共同培育壮大发展新动能；聚焦群众急难愁盼深化教育医疗合作，推行更多便民服务，促进人员便捷流动，更好造福两省父老乡亲。', '冯飞代表海南省委、省政府感谢广东对海南经济社会发展的大力支持。他表示，广东是全国改革开放的排头兵、先行地、实验区，也是科技创新的标杆和高质量发展的示范，在中国式现代化建设的大局中地位重要、作用突出。广东强烈的政治担当、辉煌的发展成就、蓬勃的发展态势、宝贵的改革经验和干部开拓创新、务实进取的精神风貌值得海南全面对标学习、消化吸收。携手推动广东海南相向发展、推动粤港澳大湾区与海南自由贸易港联动发展，是党中央和习近平总书记的殷切嘱托，也是两省推动高质量发展、服务中国式现代化建设的必然选择，有利于为构建新发展格局、扩大高水平对外开放、建设全国统一大市场探索经验。建议两省之间进一步健全合作机制，完善重大合作事项专班落实机制；共建“黄金水道”，在高铁、海运、航空、电力、天然气等基础设施建设上协同发力；扩大对外开放，加强海南自由贸易港与横琴、前海、南沙三大平台联动；促进统一市场，探索推进市场设施、市场规则、市场标准的互通、互认和互用；深化产业合作，加强种业、深海、航天等领域全产业链合作；协同防控风险，更好发挥反走私联防联控机制作用，齐心协力推动广东海南相向发展结出更加丰硕成果，打造重大国家战略联动发展典范。', '座谈会上，王伟中、刘小明分别介绍广东、海南经济社会发展情况及两省合作交流情况，并代表广东省人民政府和海南省人民政府签署《推动广东海南相向发展战略合作协议》。黄坤明、冯飞见证签约。', '在广东期间，海南省党政代表团前往广州、深圳等地，深入前海深港现代服务业合作区、莲塘口岸、国家超级计算广州中心、广东数字政府建设运营中心、广汽研究院、南沙新区规划展览馆、南沙港区四期码头、全球优品分拨中心和深圳迈瑞生物医疗电子股份有限公司、广汽埃安新能源汽车股份有限公司，考察学习科技创新、风险防控、口岸监管、智慧港口建设、高新技术产业发展和数字政府建设等方面先进经验。', '广东省领导张虎、郭永航、张晓强、王瑞军，深圳市市长覃伟中，海南省领导周红波、罗增斌、巴特尔、倪强、顾刚参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>223</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>市交通运输局深入学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2022-04-20</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://jt.sanya.gov.cn//jtjsite/ttxw/202204/88f0703a70664b1fb39e955561a28c91.shtml</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['市交通运输局深入学习习近平总书记考察海南时的重要讲话精神_头条新闻_三亚市交通运输局', '4月19日上午,三亚市交通运输局党组成员、副局长吴坤苗主持召开党组理论学习中心组(扩大)学习会议,传达学习习近平总书记考察海南时的重要讲话精神、对海南自贸港建设作出新指示以及省委常委、市委常委扩大会议精神。局党组成员及机关各科室、各事业单位主要负责人参加会议。', '会议指出,习近平总书记的重要讲话意义深远,充分体现了党中央对海南、对三亚再创辉煌的殷切期待。要坚持以习近平总书记重要讲话精神为指引,结合“能力提升建设年”暨深化拓展“查堵点、破难题、促发展”活动要求,不断完善交通路网结构,提高运输服务水平和行业管理能力,全力推进交通运输事业高质量发展。', '会议强调,要把学习宣传贯彻习近平总书记重要讲话精神作为当前的重要政治任务,迅速组织学习,在学深弄懂的基础上,深入结合实际,先谋后动,梳理与交通运输职能相关的工作任务清单,真抓实干,以更高的视野和水准制定落实工作措施。', '当前,新冠肺炎疫情形势十分严峻,尤其不能放松防控工作。会议要求,坚持外防输入、内防反弹,提高科学精准防控,抓细抓实疫情防控各项工作。同时,进一步提升项目的品质和品位,高质量、高标准、高效率推进重点项目投资建设,发扬敢闯敢试、大胆创新、埋头苦干的精神,把学习成果转化为实际成效,为打赢疫情防控阻击战提供坚强有力的交通运输保障,助力三亚在海南自贸港建设中打造新标杆。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>223</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>三亚学堂开讲学习习近平总书记考察海南重要讲话及省市第八次党代会精神</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2022-05-19</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/zyswqdyxx/202205/a2594a50e31049dba8ac7090f0409681.shtml</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['三亚CBD学堂开讲！ 学习习近平总书记考察海南重要讲话及省市第八次党代会精神_党员学习_三亚市人民政府网', '5月19日，作为三亚湾湾区大党委成员单位之一，三亚中央商务区管理局党委与天涯区阳光海岸大社区、三亚湾湾区大党委成员单位党员、团员干部及辖区党员、群众，共同开展以习近平总书记在海南考察时的重要讲话精神及省、市第八次党代会精神为重点学习内容的专题培训活动。海南热带海洋学院马克思主义学院院长、史学博士宁波教授作专题辅导授课。', '宁波深入阐述了三亚的“国之大者”，强调要始终牢记习近平总书记殷切嘱托，胸怀“两个大局”、心系“国之大者”，特别是既要深刻理解总书记重要讲话中蕴含的深沉战略思维和鲜明现实考量，又要弄明白海南自贸港建设在中华民族伟大复兴历史进程中的作用；既要弄明白在海南自贸港建设中三亚肩负的大任重任，还要弄明白三亚未来靠什么立身、拿什么立命；既要认识到这是三亚的责任所在、使命所在，又要认识到这是三亚的优势所在、机遇所在，更是三亚的发展所在、未来所在。', '的重要一极，是三亚经济圈的“领头羊”，在全省发展大局中具有举足轻重的地位和作用。要深入学习领会习近平总书记考察海南重要讲话和省第八次党代会精神，提高政治站位，增强大局意识，强化使命担当，坚持“全省一盘棋、全岛同城化”，以', '指引，对标当好转型发展的示范、做优做精三亚经济圈、打造国际旅游胜地和科创高地、打造海南经济发展第二增长极和现代化热带滨海城市的重要要求，把准发展定位，保持战略定力，加快推进南繁种业和深海科技发展、生态文明建设、营商环境优化、乡村振兴、民生保障、党的建', '宁波还结合贯彻落实习近平总书记考察海南重要讲话和省第八次党代会精神，系统阐述了“六个三亚”建设的重点任务，以及如何积极融入国内国际双循环，坚持创新驱动发展，坚持生态立市不动摇，加强信用体系建设，提升人民生活品质，深化全面从严治党，奋力在海南自贸港建设中打造新标杆，以优异成绩迎接党的二十大胜利召开。', '最后宁波从准确把握“八个自由贸易港”奋进方向、大力构建现代产业体系、着力保障和改善民生三个方面为学员进行了解读。在研讨过程中，各位党员干部及同志纷纷表示会后要深入钻研习近平总书记的重要讲话精神及省、市第八次党代会精神，为凝心聚力加快建设现代化热带滨海城市贡献三亚CBD力量。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>223</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>市委常委会召开扩大会议传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2022-04-15</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/tpxw/202204/25f979856100479ca8828f9d0b0a6174.shtml</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['市委常委会召开扩大会议 传达学习习近平总书记考察海南时的重要讲话精神_图片新闻_三亚市人民政府网', '4月14日，市委常委会召开扩大会议，第一时间传达学习习近平总书记考察海南时的重要讲话精神及省委常委会扩大会议精神，研究部署我市贯彻落实意见。省委常委、市委书记周红波主持会议并讲话。', '市委副书记、市长包洪文，市人大常委会主任刘耿，市政协主席王利生，市委副书记尚林及市委常委作学习交流发言。', '会议指出，习近平总书记的重要讲话，充分体现了以习近平同志为核心的党中央对海南、对三亚的深情厚爱和殷切厚望，全市干部群众倍感振奋、深受鼓舞。要把学习贯彻落实习近平总书记重要讲话精神作为首要政治任务，迅速组织传达学习，将其作为市委理论学习中心组的“第一议题”，作为当前和今后一个时期工作的根本遵循和行动指南，转化为打造“六个标杆”、建设“六个三亚”的强大动力，推动三亚经济社会高质量发展，以实际行动坚定捍卫“两个确立”，坚决做到“两个维护”，在海南自贸港建设中当好排头兵、打造新标杆，以优异成绩迎接党的二十大胜利召开。', '会议强调，要以习近平总书记重要讲话精神为指引，牢记殷切嘱托，聚焦“国之大者”，坚决有力推动中央重大决策部署和省委决定要求落地生效，为海南加快建设具有世界影响力的中国特色自由贸易港扛起三亚担当。敢闯敢试、大胆创新，举全市之力建设好崖州湾科技城，打造全国种业创新高地和国家深海技术创新中心；以城市规划建设管理提升、美丽乡村建设管理提升两个“三年行动”为抓手，抓好环岛高铁高速及旅游公路沿线环境改造整治，大力发展生态旅游、全域旅游，推进中高端旅游；坚持绿色发展、生态优先，深入打好污染防治攻坚战，守护好三亚的绿水青山、碧海蓝天；进一步优化农业产业结构，大力推进农产品品牌化建设，实现农业增效农民增收；深入实施民生建设提升工程，织密扎牢民生保障网，积极探索共同富裕的实现途径；统筹发展和安全，统筹疫情防控和经济社会发展，从严从实抓好疫情防控和安全稳定各项工作。要坚定不移加强党的建设，深入推进全面从严治党，持续深化“三案二人”以案促改，一体推进不敢腐、不能腐、不想腐，以推进清廉三亚建设的实际成效为三亚在海南自贸港建设中打造新标杆保驾护航。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>223</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>市教育局党委召开扩大会议传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2022-04-20</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://edu.sanya.gov.cn//jyjsite/gzdt/202204/d47d722c8b654e96ab8b085baaa321d3.shtml</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['市教育局党委召开扩大会议传达学习习近平总书记考察海南时的重要讲话精神_工作动态_三亚市教育局', '4月19日上午，市教育局党委召开扩大会议，传达学习习近平总书记考察海南时的重要讲话精神、省委常委会扩大会议精神及市委常委会扩大会议精神，研究部署贯彻落实措施。局党委书记、局长吴萍同志主持会议，局领导班子成员分别作学习交流发言。', '会议指出，习近平总书记考察海南时的重要讲话立意深远、思想深刻、内涵丰富，充分体现了以习近平同志为核心的党中央对海南、对三亚的深情厚爱和殷切厚望。全市教育系统要把学习宣传贯彻好习近平总书记重要讲话精神作为首要政治任务，迅速掀起学习宣传贯彻的热潮。要把学习贯彻习近平总书记重要讲话精神与贯彻落实省委和市委的决策部署结合起来，聚焦打造“六个标杆”“六个三亚”要求，强化责任担当，推动三亚教育事业高质量发展，以优异成绩迎接党的二十大和省第八次党代会胜利召开。', '会议强调，要以习近平总书记重要讲话精神为指引，全面贯彻党的教育方针，始终牢记“为党育人、为国育才”的使命，落实立德树人根本任务。要坚持党建引领，巩固拓展党史学习教育成果，把党的政治建设摆在首位，始终坚持党的领导不动摇，坚持社会主义办学方向，为中国特色社会主义事业和自贸港建设培养合格的建设者和接班人。要夯实基层党组织，坚定不移推进全面从严治党；推进中小学校“样板党支部”和“党支部书记工作室”建设；推进落实中小学校党组织领导的校长负责制，充分发挥学校党组织领导作用。要全面推进学校思政课建设，深入推进“双减”，办好“阳光快乐”教育，落实“五育并举”，促进学生身心健康全面发展。要聚焦办好人民满意的教育，加快推进教育基础设施建设，加快学前教育普及普惠发展，深入推进集团化办学，扎实推进义务教育优质均衡发展和城乡一体化等，让教育发展成果更多更公平惠及人民群众。要把制度集成创新摆在突出位置，深化改革开放，结合“能力提升建设年”“制度执行年”行动要求，推进教育评价改革、教育督导体制机制改革、教师队伍建设改革，深化高水平教育对外开放，积极对接国内外优质学校和教育机构，谋划推动合作办学。要从严从紧科学精准做好教育系统新冠肺炎疫情常态化防控，当前要扎实做好学校安全、有序、错峰复课工作；持续深化中小学生生命安全教育和防护能力提升工程，扎实开展安全隐患集中排查整治，坚决守护好校园“一方净土”。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>223</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>能力提升建设市交通运输局带队赴广州考察学习公共交通管理先进经验</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2022-06-28</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://jt.sanya.gov.cn//jtjsite/gzdt/202206/11e17fbfd52a4e80997efbf8c3ec0042.shtml</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['能力提升建设｜市交通运输局带队赴广州考察学习公共交通管理先进经验_工作动态_三亚市交通运输局', '为学习和借鉴国内发达城市公共交通规划、建设、运营及管理等方面的先进经验,6月20日至22日,三亚市交通运输局副局长姚春玲带队前往广州开展实地考察。局相关科室负责人、市公共交通集团领导班子成员参加考察。', '考察团一行先后到广州市交通运输局、广州巴士集团、通用公司等地进行考察学习公共交通管理先进经验,就智慧交通、数字交通、智能驾驶、交通场站综合开发、机场综合枢纽建设等方面先进理念和成功经验进行深入探讨与交流。考察团深受启发,一致认为此次考察学习,对有效提高我市交通管理效能提供有益的借鉴和参考,并积累了宝贵的经验。', '为提升干部能力专业化水平,市交通运输局对市公交集团与广州巴士集团战略合作、互派挂职锻炼干部提出殷切希望和要求。希望以此次考察交流为契机,实现互鉴发展,推动交通运输事业发展再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>223</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>市教育局召开全市教育系统学习贯彻习近平总书记考察海南时的重要讲话精神暨学校复课工作会议</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2022-04-21</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://edu.sanya.gov.cn//jyjsite/ttxw/202204/5dbdaee1a3354bbf9723c02c980298ec.shtml</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['市教育局召开全市教育系统学习贯彻习近平总书记考察海南时的重要讲话精神暨学校复课工作会议_头条新闻_三亚市教育局', '市教育局召开全市教育系统学习贯彻习近平总书记考察海南时的重要讲话精神暨学校复课工作会议', '4月20日上午，市教育局召开全市教育系统学习贯彻习近平总书记考察海南时的重要讲话精神暨学校复课工作会议，会议传达学习了习近平总书记在海南考察时的重要讲话精神，省委常委会扩大会议精神及市委常委会扩大会议精神，总结我市学校疫情防控工作并部署近期复课工作和校园疫情防控工作。', '会议强调，习近平总书记的重要讲话赋予了海南新的使命，提出了更高要求，全市教育系统要牢记习近平总书记的殷殷嘱托，把学习宣传贯彻好习近平总书记重要讲话精神作为首要政治任务，迅速组织传达学习，与贯彻落实省委和市委的决策部署结合起来，坚持党对教育的全面领导不动摇，推进三亚教育事业高质量发展，为加快建设具有世界影响力的中国特色自由贸易港，贡献三亚教育智慧和三亚教育力量。', '会议要求，各区教育局、各学校要充分认识复学期间及复学后疫情防控工作的艰巨性，以高度负责的态度全面做好复学上课各项准备工作，确保复学工作顺利进行，坚决做到四点要求：', '一要提高政治站位，强化责任意识。各单位务必高度重视，层层压实责任，确保“责任到岗，任务到人”，扎实做好师生员工管理、线上线下教学衔接、校园疫情防控、安全隐患集中排查整治等工作，确保师生安全、平稳、有序复课。', '二要严格落实复课工作各项安排。按照《三亚市教育局关于印发三亚市中小学、幼儿园、职业学校、培训机构复课工作方案的通知》要求逐项落实，做到疫情防控措施精准到位、应急预案到位、人员组织到位、设施完善到位、物资储备到位、制度落实到位、风险排查到位。', '三要持续做好疫情防控常态化工作。各单位要清醒认识当前疫情防控形势，认真总结、复盘本阶段疫情防控工作，查漏补缺，扎实做好校门管理、师生员工及共同居住人健康动态管理、学生晨午（晚）检、教职工疫情防控技术培训、宣传引导、应急演练、物资储备、校园环境消杀等工作，筑牢校园疫情防控安全线。', '四要扎实开展安全隐患集中排查整治工作。全面排查校园内安全风险隐患，做到立查立改，加强安全管理制度建设，做好学生防溺水、交通、食品安全等方面的宣传工作，守好校园“一方净土”。', '市教育局党委专职副书记李志刚传达习近平总书记考察海南时的重要讲话精神，市教育局党委委员、副局长陈小冬、李丽萍部署返校复课及疫情防控工作']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>223</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>三亚市司法局组织干部深入学习习近平总书记考察海南时的重要讲话和省第八次党代会精神</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2022-05-13</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sfjsite/zwdtxx/202205/7b1921caa92b45d5a508e095367b7b6e.shtml</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['三亚市司法局组织干部深入学习习近平总书记考察海南时的重要讲话和省第八次党代会精神_政务动态_市司法局', '5月11日上午,三亚市司法局组织全体干部聆听了省司法厅“海南司法行政大讲堂”,以专题辅导的形式再次集中学习了习近平总书记考察海南时的重要讲话和省第八次党代会精神。', '讲座邀请了海南现代管理研究院院长王毅武教授进行专题辅导。王毅武以《理解与把握习近平总书记考察海南重要讲话与中共海南省第八次党代会精神》为题,围绕习近平总书记关于海南工作的系列重要讲话和指示批示,对习近平总书记考察海南重要讲话精神的精髓要义、省第八次党代会精神与自贸港建设新模式进行了系统阐述和深入解读。讲座主题鲜明、内容丰富、论点新颖,具有很强的理论性、针对性和指导性。', '此次专题讲座给予全体干部启发良多,干部们纷纷表示要把学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神与开展', '“能力提升年”暨深化拓展“查破促”活动结合起来,与自身业务工作结合起来,研究贯彻落实措施,切实将学习成效转化为推动司法行政工作高质量发展的强大动力,以优异成绩迎接党的二十大胜利召开。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>223</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>资讯省审计厅党组理论学习中心组召开学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神扩大会议</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2022-05-13</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://sj.sanya.gov.cn//sjjsite/tpxw/202205/8dd3dc5490884769804300c65446daef.shtml</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['【资讯】省审计厅党组理论学习中心组召开学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神扩大会议_图片新闻_三亚市审计局', '【资讯】省审计厅党组理论学习中心组召开学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神扩大会议', '5月9日,省审计厅利用省委党校(省行政学院)优质教育资源,召开厅党组理论中心组学习(扩大)会,刘劲松厅长围绕“立足经济监督定位,奋力开创海南自贸港审计工作高质量发展新局面”作了交流发言。', '会议强调,要深入学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神,进一步落实省委“能力提升建设年”活动要求,将学习成效转化为审计工作提质增效的思路、举措和动力。', '会议指出,全省审计机关要树牢政治机关意识,深入领会省第八次党代会主题主线,在加快建设具有世界影响力的中国特色自由贸易港中扛起审计担当;深入领会“一本三基四梁八柱”战略框架对高质量建设海南自贸港的重要指导意义,做到学深悟透、入脑入心;深入领会过去五年取得的历史性成就和宝贵经验,要在审计实践中长期坚持、不断深化;深入领会今后五年八项重点任务,抓好全省审计系统学习贯彻工作。', '会议明确,全省审计机关要找准自身定位,更好发挥作用,既要自信,也要自省,正视问题、看清差距、保持警醒,不断总结经验、补齐短板、推动发展。通过认真总结回顾过去5年海南审计工作,找准新时期审计在自贸港建设中的新定位,抢抓机遇、乘势而上,以高质量的审计监督落实好习近平总书记交待海南的相关事项和省委省政府决策部署。', '会议要求,要聚焦主责主业,全面提升审计监督效能;要做实研究型审计,全面提升审计工作水平;要进一步强化审计全过程质量管理,全面提升审计项目质量;要以“能力提升建设年”活动为契机,全面提升审计干部能力素质。', '厅领导,厅机关各处室负责人、党支部书记和市、县(区)审计局领导干部参加会议。(刘启石)']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>223</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>三亚市统计局传达学习习近平考察海南时的重要讲话精神和省市第八次党代会精神</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2022-06-02</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://tjj.sanya.gov.cn//tjjsite/tpxw/202206/ff758d0ab9854d27bab96f2c4ed15d3b.shtml</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['三亚市统计局传达学习习近平考察海南时的重要讲话精神和省、市第八次党代会精神_图片新闻_三亚市统计局', '2022年5月27日下午,市统计局在局机关大会议室召开专题学习会,传达学习习近平考察海南时的重要讲话精神和省、市第八次党代会精神。局党组书记、局长钟景主持会议并讲话。', '会议指出,省第八次党代会是在全省上下深入学习贯彻习近平总书记考察海南重要讲话精神、全岛封关运作准备工作加快推进的关键时期召开的一次十分重要的会议。省委书记沈晓明在大会所作的报告,全面回顾过去五年取得的重大成就,科学谋划未来五年的发展蓝图,提出了今后五年海南发展的主题主线、工作目标和重点任务,为全面落实“一本三基四梁八柱”战略框架吹响了号角,对加快建设具有世界影响力的中国特色自由贸易港具有重大的指导意义。', '会议强调,全体干部职工要提高政治站位,充分认识省第八次党代会的重大意义,切实将思想和行动统一到省第八次党代会精神上来,要层层深入传达学习贯彻,把学习省第八次党代会与深入学习习近平总书记考察海南重要讲话和市第八次党代会精神一体推进,深刻领会、精准把握、狠抓落实,以“一本三基四梁八柱”战略框架为指引,聚焦打造“六个标杆”、建设“六个三亚”,进一步解放思想、开拓创新、团结奋斗、攻坚克难,为海南全面深化改革开放和中国特色自由贸易港建设做出应有贡献。', '为深入学习习近平总书记考察海南重要讲话精神和省、市第八次党代会精神,结合当前统计工作,钟景同志要求:一、全体党员干部要深刻认识习近平总书记考察海南重要讲话精神和省、市第八次党代会精神的重要意义、丰富内涵。把学习贯彻习近平总书记考察海南重要讲话精神和省、市第八次党代会精神作为当前和今后一个时期的重要政治任务,要迅速掀起学习热潮;二、加强《关于更加有效发挥统计监督职能作用的意见》的学习,推动《统计监督意见》的落实;三、加强四大产业高质量发展监测,建立现代产业评价体系;四、要将习近平总书记考察海南重要讲话精神和省、市第八次党代会精神走深走实,落实到日常生活中,加强统计调研、统计监测,做好统计分析,使经济各项指标在合理区间运行。一是党组要发挥领学促学作用;二是要坚持读原文,悟原理,引导党员干部准确把握精神实质;三是要联系实际学、联系个人思想学,用脑用心;四是要与党史学习常态化长效化、制度执行年、能力建设提升年、深化拓展“查、破、促”活动结合起来,破解我们面临的困难,推动统计工作高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>223</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>三亚市发改委召开党组扩大会议传达学习习近平总书记考察海南时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2022-04-21</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://fg.sanya.gov.cn//fgwsite/tpxw/202204/bfb5ff8b63e849bd93fc503b4af03675.shtml</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['三亚市发改委召开党组（扩大）会议传达学习习近平总书记考察海南时的重要讲话精神_图片新闻_三亚市发展和改革委员会', '4月20日上午，三亚市发展改革委召开党组理论学习中心组（扩大）学习会，传达学习习近平总书记考察海南时的重要讲话精神及省委常委会扩大会议、市委常委会扩大会议、市政府党组扩大会议精神，研究部署市发改系统贯彻落实工作。', '会议指出，习近平总书记的重要讲话充分体现了以习近平同志为核心的党中央对海南、对三亚的深情厚爱和殷切厚望，全委干部职工倍感振奋、深受鼓舞。要把学习贯彻落实习近平总书记重要讲话精神作为首要政治任务，迅速组织传达学习，将其作为市发改委理论学习中心组的“第一议题”，作为当前和今后一个时期工作的根本遵循和行动指南，转化为打造“六个标杆”、建设“六个三亚”的强大动力，推动三亚经济社会高质量发展，以实际行动坚定捍卫“两个确立”，坚决做到“两个维护”，在海南自贸港建设中当好排头兵、打造新标杆，以优异成绩迎接党的二十大胜利召开。', '会议组织开展了涉粮问题专项整治巡察专题民主生活会会前专题学习，集中学习习近平总书记关于做好巡视工作系列重要论述、《习近平谈粮食安全：悠悠万事，吃饭为大》和《县以上党和国家机关党员领导干部民主生活会若干规定》。', '会议组织开展了安全生产专题学习，学习习近平总书记关于安全生产重要论述、全国安全生产电视电话会议精神、海南省安全生产委员会2022年第二次全体会议精神和三亚市安全生产下一步重点工作，以及《中华人民共和国安全生产法》、《三亚市各区和各有关部门安全生产工作职责规定》部分内容。', '会议还传达学习了习近平总书记有关党的民族政策和宗教政策重要讲话精神，2022年全国、全省宣传部长会议和全市宣传思想工作（扩大）会议精神。', '会议就理论学习中心组学习内容结合我委实际工作，提出下一阶段工作要求：一是深入贯彻习近平总书记重要讲话和重要指示精神，抓好重大举措加快打造标志性成果，坚决有力推动省委省政府策部署和市委市政府决定要求落地生效，为打造海南自由贸易港建设标杆扛起三亚发改担当；二是要强化时间管理，围绕市委市政府关注的重点工作要求，明确时间节点，确保按时高质量高标准完成各项工作；三是加强机关工作作风建设，充分发挥机关各科室职能，加强协调，有效凝聚工作合力提高机关工作质量；四是高度重视基础工作，做好工作规划、年度计划、实施方案及工作要点等记录和梳理，做好工作台账，对工作中存在的优势和问题心中有数；五是提高工作主动性，要提高想事情、谋事情的意识，领导干部要有超前意识，对未来的洞察和远见，学会借鉴他山之石。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>223</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>能力提升年市林业局开展学习习近平总书记考察海南重要讲话和省第八次党代会精神专题培训班</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2022-06-17</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://lyj.sanya.gov.cn//lyjsite/tpxw/202206/f064d978d0bc4c99ba406cacfe8c79d0.shtml</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['能力提升年 | 市林业局开展学习习近平总书记考察海南重要讲话和省第八次党代会精神专题培训班_图片新闻_三亚市林业局', '能力提升年 | 市林业局开展学习习近平总书记考察海南重要讲话和省第八次党代会精神专题培训班', '为深入贯彻落实我市、我局“能力提升建设年”要求,锻造干部过硬本领,推动各级领导干部更加全面、准确理解习近平总书记考察海南时的重要讲话和省第八次党代会精神,6月17日上午,市林业局举办学习习近平总书记考察海南时的重要讲话和省第八次党代会精神专题培训班,邀请市委党校刘子瑛副教授进行专题授课。此次培训由市林业局党组成员、副局长林日雄同志主持。', '刘子瑛副教授对习近平总书记考察海南时的重要讲话和省第八次党代会精神进行了全面的阐释和解读,并就我市如何贯彻落实会议精神进行了分享交流。同时,衔接国际安全形势及我国发展大局,对种业创新紧迫性、热带雨林国家公园战略意义、生态环境保护重要作用以及森林碳汇等与林业工作紧密相关方向进行了深入的探讨。', '林日雄指出,省第八次党代会是在全省上下深入学习贯彻习近平总书记考察海南时的重要讲话精神、全岛封关运作准备工作加快推进的关键时期召开的一次十分重要的会议,科学谋划了未来五年发展蓝图。我们要结合林业实际,在学懂弄通做实习近平生态文明思想上下功夫,始终牢记“国之大者”,坚决扛起生态文明建设和生态环境保护的政治责任,科学谋划、系统推进绿色三亚建设,为三亚奋力打造生态文明建设标杆贡献林业力量。', '结合我市能力提升建设年暨深化拓展“查堵点、破难题、促发展”活动要求及工作部署,林日雄要求:', '要深刻认识和领会习近平总书记考察海南时的重要讲话和省第八次党代会精神的重要意义和精神实质,切实把思想和行动统一到省第八次党代会精神上来。', '要深入学习贯彻落实习近平总书记考察海南时的重要讲话精神和省第八次党代会精神,准确把握主题主线、目标要求、重点任务,深入领会“一本三基四梁八柱”战略框架对高质量建设海南自由贸易港的重要指导意义,自觉把林业工作融入“一本三基四梁八柱”战略框架中去思考、谋划、推动,确保林业工作始终与大局同频共振、同向发力。', '要结合林业工作实际,不断深化学习,掌握业务技能,以过硬的能力、优良的作风、时不待我的精神,抓好林业各项工作,为助推我市打造“六个标杆”建设“六个三亚”贡献林业力量,全面推进三亚林业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>223</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>三亚市综合行政执法局党组理论学习中心组扩大学习贯彻习近平总书记考察海南重要讲话和省市第八次党代会精神专题培训会</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2022-06-14</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://xzzf.sanya.gov.cn//zhxzjsite/dsxxjy/202206/78ad114a8a30426db4e7005f51457feb.shtml</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['三亚市综合行政执法局党组理论学习中心组（扩大）学习贯彻习近平总书记考察海南重要讲话和省市第八次党代会精神专题培训会_党史学习教育_ 三亚市综合行政执法局三亚市城市管理执法局', '三亚市综合行政执法局党组理论学习中心组（扩大）学习贯彻习近平总书记考察海南重要讲话和省市第八次党代会精神专题培训会', '在三亚警备区大礼堂举行。省委党校常务副校长王和平受邀为市综合行政执法局全体党员作主题为《全面贯彻“一本三基四梁八柱”战略框架 加快建设具有世界影响力的中国特色自由贸易港》的宣讲。', '在三亚警备区大礼堂举行。省委党校常务副校长王和平受邀为市综合行政执法局全体党员作主题为《全面贯彻', '王和平对省第八次党代会的主要精神进行全面回顾和深度阐释，并着重解读“一本三基四梁八柱”的战略框架。他指出，全面认识海南自贸港建设“一本三基四梁八柱”战略框架是海南经济特区过往发展正反经验的科学总结、是贯彻习近平总书记重要讲话精神的生动范例、是海南自贸港建设思路和举措的最大集成、是海南自贸港建设系统性工程的精彩提炼。', '把学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神作为当前的首要任务，在敢闯敢试中比学赶超，在大胆创新中开拓新局，在做好三亚市“揭榜挂帅”攻坚项目实践活动暨第二批《三亚综合执法协作备忘录》工作和常态城市精细化管理的同时，蹄疾步稳推进综合行政执法改革，要找准执法角色定位，推动行政执法与三亚高质量发展同频共振、合拍共鸣，持续推进三亚综合行政执法改革走深走实，打造综合行政执法的“海南样本”，推动三亚在海南全面深化改革开放和中国特色自由贸易港建设中当好排头兵、打造新标杆，以优异成绩迎接党的二十大胜利召开。', '把学习贯彻习近平总书记考察海南重要讲话和省第八次党代会精神作为当前的首要任务，在敢闯敢试中比学赶超，在大胆创新中开拓新局，在做好三亚市', '与会人员纷纷表示，城市管理与综合执法工作只有起点，没有终点；没有最好，只有更好。要将省第八次党代会精神牢牢贯穿工作始终，通过“能力提升建设年”活动暨“大培训、大练兵、大比武”工作安排，当好执法转型示范，开展柔性执法专项行动，为做优做精三亚经济圈，打造国际旅游胜地、自由贸易港科创高地做好执法保障，当好全省及至全国执法体制改革“试验田”，不断擦亮三亚执法“金字招牌”，让城市更有序、更安全、更文明，切实增强人民群众的获得感、幸福感、安全感。', '与会人员纷纷表示，城市管理与综合执法工作只有起点，没有终点；没有最好，只有更好。要将省第八次党代会精神牢牢贯穿工作始终，通过']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>223</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>市委常委会召开扩大会议传达学习习近平总书记考察海南时的重要讲话精神周红波主持并讲话</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2022-04-16</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://fg.sanya.gov.cn//fgwsite/ldhd/202204/80aa6e571e7b47cc9af402efe32c320d.shtml</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['市委常委会召开扩大会议 传达学习习近平总书记考察海南时的重要讲话精神 周红波主持并讲话_领导活动_三亚市发展和改革委员会', '市委常委会召开扩大会议 传达学习习近平总书记考察海南时的重要讲话精神 周红波主持并讲话', '4月14日，市委常委会召开扩大会议，第一时间传达学习习近平总书记考察海南时的重要讲话精神及省委常委会扩大会议精神，研究部署我市贯彻落实意见。省委常委、市委书记周红波主持会议并讲话。', '市委副书记、市长包洪文，市人大常委会主任刘耿，市政协主席王利生，市委副书记尚林及市委常委作学习交流发言。', '会议指出，习近平总书记的重要讲话，充分体现了以习近平同志为核心的党中央对海南、对三亚的深情厚爱和殷切厚望，全市干部群众倍感振奋、深受鼓舞。要把学习贯彻落实习近平总书记重要讲话精神作为首要政治任务，迅速组织传达学习，将其作为市委理论学习中心组的“第一议题”，作为当前和今后一个时期工作的根本遵循和行动指南，转化为打造“六个标杆”、建设“六个三亚”的强大动力，推动三亚经济社会高质量发展，以实际行动坚定捍卫“两个确立”，坚决做到“两个维护”，在海南自贸港建设中当好排头兵、打造新标杆，以优异成绩迎接党的二十大胜利召开。', '会议强调，要以习近平总书记重要讲话精神为指引，牢记殷切嘱托，聚焦“国之大者”，坚决有力推动中央重大决策部署和省委决定要求落地生效，为海南加快建设具有世界影响力的中国特色自由贸易港扛起三亚担当。敢闯敢试、大胆创新，举全市之力建设好崖州湾科技城，打造全国种业创新高地和国家深海技术创新中心；以城市规划建设管理提升、美丽乡村建设管理提升两个“三年行动”为抓手，抓好环岛高铁高速及旅游公路沿线环境改造整治，大力发展生态旅游、全域旅游，推进中高端旅游；坚持绿色发展、生态优先，深入打好污染防治攻坚战，守护好三亚的绿水青山、碧海蓝天；进一步优化农业产业结构，大力推进农产品品牌化建设，实现农业增效农民增收；深入实施民生建设提升工程，织密扎牢民生保障网，积极探索共同富裕的实现途径；统筹发展和安全，统筹疫情防控和经济社会发展，从严从实抓好疫情防控和安全稳定各项工作。要坚定不移加强党的建设，深入推进全面从严治党，持续深化“三案二人”以案促改，一体推进不敢腐、不能腐、不想腐，以推进清廉三亚建设的实际成效为三亚在海南自贸港建设中打造新标杆保驾护航。部分现职市级领导列席会议。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>223</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>聚集干部能力提升三亚市财政局开展学习贯彻习近平总书记考察海南重要讲话和省市第八次党代会精神专题培训</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2022-06-02</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://mof.sanya.gov.cn//czjsite/gzdt/202206/4bcec11c682b440cb9b443c280594349.shtml</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['聚集干部能力提升——三亚市财政局开展学习贯彻习近平总书记考察海南重要讲话和省市第八次党代会精神专题培训_工作动态_三亚市财政局', '聚集干部能力提升——三亚市财政局开展学习贯彻习近平总书记考察海南重要讲话和省市第八次党代会精神专题培训', '5月28日,三亚市财政局开展学习贯彻习近平总书记考察海南重要讲话和省市第八次党代会精神专题培训班。全局干部职工参训。', '根据市委有关要求和局党组统一部署,我局采取专家辅导及依托全市干部线上教学平台等方式,对全局领导干部职工进行专题培训。本期培训邀请海南大学经济学院教授蔡东宏到我局开展专题宣讲,围绕习近平总书记考察海南重要讲话、党的十九届六中全会和省市第八次党代会精神等方面进行解读,推动干部队伍切实扛起责任担当,不折不扣贯彻落实党中央决策部署和省委、市委工作要求。', '深入学习贯彻落实习近平总书记考察海南时的重要讲话精神和省第八次党代会精神是我局当前和今后一段时期的首要政治任务。我们将把精神内容转化为推动工作发展的强大动力,聚焦“国之大者”,跟进中央、省委市委重大决策部署,全面落实“1348”战略框架,主动对标“八个自贸港”建设重点任务,充分发挥财政资金和财税政策“双供给”作用,为助力三亚高质量发展、推动海南自贸港行稳致远提供坚强的财政保障。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>223</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>三亚市各区市直单位党政正职学习贯彻习近平总书记考察海南重要讲话和省市第八次党代会精神专题研讨班开班</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2022-05-17</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.sanya.gov.cn//sanyasite/tpxwhn8ddh/202205/f150fc6ab4bc49d78404d4feb8192f40.shtml</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['三亚市各区、市直单位党政正职学习贯彻习近平总书记考察海南重要讲话和省市第八次党代会精神专题研讨班开班_图片新闻_三亚市人民政府网', '三亚市各区、市直单位党政正职学习贯彻习近平总书记考察海南重要讲话和省市第八次党代会精神专题研讨班开班', '5月17日，2022年三亚市各区、市直单位党政正职学习贯彻习近平总书记考察海南重要讲话和省市第八次党代会精神专题研讨班开班。省委常委、市委书记周红波，市委副书记、市长包洪文作专题辅导报告。', '周红波深入阐述了三亚的“国之大者”，强调要始终牢记习近平总书记殷切嘱托，胸怀“两个大局”、心系“国之大者”，不断提高政治判断力、政治领悟力、政治执行力，特别是既要深刻理解总书记重要讲话中蕴含的深沉战略思维和鲜明现实考量，又要弄明白海南自贸港建设在中华民族伟大复兴历史进程中的作用；既要弄明白在海南自贸港建设中三亚肩负的大任重任，还要弄明白三亚未来靠什么立身、拿什么立命；既要认识到这是三亚的责任所在、使命所在，又要认识到这是三亚的优势所在、机遇所在，更是三亚的发展所在、未来所在。', '周红波强调，三亚是海南“三极一带一区”的重要一极，是三亚经济圈的“领头羊”，在全省发展大局中具有举足轻重的地位和作用。要深入学习领会习近平总书记考察海南重要讲话和省第八次党代会精神，提高政治站位，增强大局意识，强化使命担当，坚持“全省一盘棋、全岛同城化”，以“一本三基四梁八柱”战略框架为指引，对标当好转型发展的示范、做优做精三亚经济圈、打造国际旅游胜地和科创高地、打造海南经济发展第二增长极和现代化热带滨海城市的重要要求，把准发展定位，保持战略定力，加快推进南繁种业和深海科技发展、生态文明建设、营商环境优化、乡村振兴、民生保障、党的建设等工作，着力打造“六个标杆”、建设“六个三亚”，为海南加快建设具有世界影响力的中国特色自由贸易港、打造成为新时代中国改革开放的示范和展示中国风范的靓丽名片扛起三亚担当。', '周红波还结合贯彻落实习近平总书记考察海南重要讲话和省第八次党代会精神，系统部署了“六个三亚”建设的重点任务，要求积极融入国内国际双循环，坚持创新驱动发展，坚持生态立市不动摇，加强信用体系建设，提升人民生活品质，深化全面从严治党，奋力在海南自贸港建设中打造新标杆，以优异成绩迎接党的二十大胜利召开。', '包洪文从准确把握“八个自由贸易港”奋进方向、大力构建现代产业体系、着力保障和改善民生三个方面进行了解读。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>223</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>三亚市各区市直单位党政正职学习贯彻习近平总书记考察海南重要讲话和省市第八次党代会精神专题研讨班开班</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2022-05-18</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://jy.sanya.gov.cn//jyqsite/ttxw/202205/388fafd6d3cd4d0d93c9281db7e99c9a.shtml</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['三亚市各区、市直单位党政正职学习贯彻习近平总书记考察海南重要讲话和省市第八次党代会精神专题研讨班开班_头条新闻_三亚吉阳区人民政府', '三亚市各区、市直单位党政正职学习贯彻习近平总书记考察海南重要讲话和省市第八次党代会精神专题研讨班开班', '5月17日，2022年三亚市各区、市直单位党政正职学习贯彻习近平总书记考察海南重要讲话和省市第八次党代会精神专题研讨班开班。省委常委、市委书记周红波，市委副书记、市长包洪文作专题辅导报告。', '周红波深入阐述了三亚的“国之大者”，强调要始终牢记习近平总书记殷切嘱托，胸怀“两个大局”、心系“国之大者”，不断提高政治判断力、政治领悟力、政治执行力，特别是既要深刻理解总书记重要讲话中蕴含的深沉战略思维和鲜明现实考量，又要弄明白海南自贸港建设在中华民族伟大复兴历史进程中的作用；既要弄明白在海南自贸港建设中三亚肩负的大任重任，还要弄明白三亚未来靠什么立身、拿什么立命；既要认识到这是三亚的责任所在、使命所在，又要认识到这是三亚的优势所在、机遇所在，更是三亚的发展所在、未来所在。', '周红波强调，三亚是海南“三极一带一区”的重要一极，是三亚经济圈的“领头羊”，在全省发展大局中具有举足轻重的地位和作用。要深入学习领会习近平总书记考察海南重要讲话和省第八次党代会精神，提高政治站位，增强大局意识，强化使命担当，坚持“全省一盘棋、全岛同城化”，以“一本三基四梁八柱”战略框架为指引，对标当好转型发展的示范、做优做精三亚经济圈、打造国际旅游胜地和科创高地、打造海南经济发展第二增长极和现代化热带滨海城市的重要要求，把准发展定位，保持战略定力，加快推进南繁种业和深海科技发展、生态文明建设、营商环境优化、乡村振兴、民生保障、党的建设等工作，着力打造“六个标杆”、建设“六个三亚”，为海南加快建设具有世界影响力的中国特色自由贸易港、打造成为新时代中国改革开放的示范和展示中国风范的靓丽名片扛起三亚担当。', '周红波还结合贯彻落实习近平总书记考察海南重要讲话和省第八次党代会精神，系统部署了“六个三亚”建设的重点任务，要求积极融入国内国际双循环，坚持创新驱动发展，坚持生态立市不动摇，加强信用体系建设，提升人民生活品质，深化全面从严治党，奋力在海南自贸港建设中打造新标杆，以优异成绩迎接党的二十大胜利召开。', '包洪文从准确把握“八个自由贸易港”奋进方向、大力构建现代产业体系、着力保障和改善民生三个方面进行了解读。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>223</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>市林业局召开局党组扩大会议传达学习习近平总书记在海南考察时的重要讲话精神和省市第八次党代会精神</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2022-05-24</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://lyj.sanya.gov.cn//lyjsite/ttxw/202205/59982edf16964395957f1512233977ac.shtml</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['市林业局召开局党组（扩大）会议传达学习习近平总书记在海南考察时的重要讲话精神和省、市第八次党代会精神_头条新闻_三亚市林业局', '市林业局召开局党组（扩大）会议传达学习习近平总书记在海南考察时的重要讲话精神和省、市第八次党代会精神', '5月23日上午,市林业局在二楼会议室召开2022年第9次党组理论中心组(扩大)学习会议,传达学习习近平总书记在海南考察时的重要讲话精神和省、市第八次党代会精神,并研究贯彻落实措施,推动林业工作高质量发展。局党组书记王瑞安主持会议并讲话。', '会议指出,习近平总书记的重要讲话,充分体现了习近平总书记对海南生态文明建设高度重视,为海南坚持生态立省提供了根本遵循和行动指南,林业系统全体干部职工要把学习贯彻落实习近平总书记重要讲话精神作为当前首要政治任务;同时,省第八次党代会是在全省上下深入学习贯彻习近平总书记考察海南时的重要讲话精神、全岛封关运作准备工作加快推进的关键时期召开的一次十分重要的会议,科学谋划了未来五年发展蓝图,我们要以实际行动坚定捍卫“两个确立”,坚决做到“两个维护”,为海南加快建设具有世界影响力的中国特色自由贸易港和展示中国风范的靓丽名片扛起林业担当。', '以习近平总书记重要讲话精神为指引,牢固树立“绿水青山就是金山银山”理念,不负总书记的殷切嘱托,要完整准确全面贯彻新发展理念,全力推动林业产业高质量发展。要深入学习贯彻落实省、市第八次党代会精神,深入领会“一本三基四梁八柱”战略框架对高质量建设海南自由贸易港的重要指导意义,做到学深悟透、细照笃行。', '紧密结合习近平总书记考察海南时的重要讲话精神和省、市第八次党代会具体任务,按照市委市政府部署要求,结合林业工作实际,明确具体工作任务和阶段性目标,深化细化工作举措,进一步加快推进各项林业重点工作。', '持续加强林业队伍建设,提升干部人才质量;持续正风肃纪反腐,着力打造“清廉三亚”;持续加强党的领导,凝聚团结奋进合力,为建设海南自由贸易港、打造国家生态文明试验区和迎接党的二十大胜利召开贡献林业力量。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>223</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>能力提升建设年三亚市生态环境局举办学习习近平总书记在海南考察时讲话及解读省市第八次党代会培训班</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2022-05-23</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://hbj.sanya.gov.cn//sthjsite/djgz/202205/d03a913f87a54c3dbbfb32641875384e.shtml</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['能力提升建设年|三亚市生态环境局举办学习习近平总书记在海南考察时讲话及解读省市第八次党代会培训班_廉政党建_三亚市生态环境局', '能力提升建设年|三亚市生态环境局举办学习习近平总书记在海南考察时讲话及解读省市第八次党代会培训班', '为深入贯彻落实海南省委关于在全省开展“能力提升建设年”活动的部署要求,奋力打造全国生态文明建设新标杆,', '不断提升三亚市生态环境局干部职工的综合素质和业务能力,5月18日上午9:00,三亚市生态环境局举办学习习近平总书记在海南考察时讲话及解读省市第八次党代会培训,三亚市生态环境局领导,各科室、分局、下属单位负责人及工作人员参加培训。', '海南师范大学教授,博士生导师,马克思主义理论一级学科带头人郭根山教授进行授课。开展《学习习近平总书记在海南考察时讲话及解读省市第八次党代会》专题培训。', '郭根山教授从肯定新成就、赋予新动能、建设自贸港、打造新标杆等四个方面,对习近平总书记在海南考察时的重要讲话、省市第八次党代会精神进行了详细解读。通过培训,激励干部职工解放思想、开拓创新、团结奋斗、攻坚克难,奋力打造海南自贸港建设生态文明新标杆,为加快建设具有世界影响力的中国特色自由贸易港贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>223</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>能力提升建设市交通运输局举办学习贯彻习近平总书记考察海南重要讲话和省市第八次党代会精神专题培训班</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://jt.sanya.gov.cn//jtjsite/ttxw/202206/e602608f887e47ee88fdb60c247b3fcd.shtml</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['能力提升建设 | 市交通运输局举办学习贯彻习近平总书记考察海南重要讲话和省、市第八次党代会精神专题培训班_头条新闻_三亚市交通运输局', '能力提升建设 | 市交通运输局举办学习贯彻习近平总书记考察海南重要讲话和省、市第八次党代会精神专题培训班', '5月27日下午,市交通运输局举办学习贯彻习近平总书记考察海南重要讲话和省、市第八次党代会精神专题培训班,邀请市委党校讲师李卉授课。局机关各科室、项目组及各事业单位干部、支部党员共70人参加培训学习。', '李卉讲师以习近平总书记考察海南重要讲话和省、市第八次党代会精神为主线,从“国之大者”和“历史担当”两方面出发,聚焦种业创新、海洋科技、国家公园、海南自由贸易港、干部队伍等领域,并紧扣住“解放思想”“开拓创新”“团结奋斗”“攻坚克难”等关键词,进行深刻剖析和细致解读。', '举办此次专题培训班,旨在引导全局干部解放思想、开拓创新,进一步准确把握当前面临的形势和重点目标任务,不断提升综合素养、增强工作本领。党员干部们纷纷表示,要认真学习领会,将习近平总书记考察海南重要讲话和省、市第八次党代会精神牢牢贯穿工作始终,通过“能力提升建设年”活动暨“大培训、大练兵、大比武”工作安排,切实把学习培训成果转化为干事创业的好作风、干部队伍的战斗力、推动发展的新业绩,以优异成绩迎接党的二十大胜利召开。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>223</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>三亚市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>市卫健委举办卫健系统干部学习党的十九届六中全会精神及习近平总书记考察海南重要讲话和省市第八次党代会精神暨能力提升建设培训班</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2022-05-30</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://ws.sanya.gov.cn//wjwsite/gzdt/202205/044a7c3f6c724856abddf1bf1cc30062.shtml</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['市卫健委举办卫健系统干部学习党的十九届六中全会精神及习近平总书记考察海南重要讲话和省、市第八次党代会精神暨能力提升建设培训班_工作动态_三亚市卫生健康委员会', '市卫健委举办卫健系统干部学习党的十九届六中全会精神及习近平总书记考察海南重要讲话和省、市第八次党代会精神暨能力提升建设培训班', '为深入学习领会党的十九届六中全会精神和习近平总书记考察海南重要讲话精神,学深悟透省、市第八次党代会精神,教育和引导全市卫健系统干部用会议精神武装头脑、指导实践,更好地推动卫生健康工作,切实提高我市卫健系统干部的履职能力,5月25日至27日,市卫健委举办卫健系统干部学习党的十九届六中全会精神及习近平总书记考察海南重要讲话和省、市第八次党代会精神暨能力提升建设培训班。市卫健委四级调研员司朝起出席会议并作开班动员和结业讲话。', '司朝起同志在开班仪式上强调三点意见。一要提高政治站位,高度重视培训工作,充分认识学习领会全会精神和党代会精神的重要意义,进一步增强学习贯彻政治自觉、思想自觉和行动自觉,把思想和行动统一到全会精神和党代会精神上来;二要聚焦主题,做到学以致用,以运用党的创新理论指导实践和工作,推动新时期、新阶段的卫生健康工作新要求、新挑战落地落实;三要严于律己,遵守各项培训规定,落实好市委市政府和省卫健委各项重点工作。', '培训期间,聚焦学习党的十九届六中全会精神、习近平总书记考察海南重要讲话和省市第八次党代会精神,集中观看了纪律警示教育片和保密警示教育片,以及爱国主义教育基地现场教学等内容。', '培训班采取视频直播(回放)+集中教学,双模式举办,其中集中教学结合理论讲授、视频教学、现场教学、交流研讨及知识测试等方式教学,通过运用线上直播加大了教育培训的覆盖面。', '培训后,学员们纷纷表示,要认真学习领会所学内容,把自身所学转化为推进本单位、本部门工作的强大动力,以奋发有为的精神状态和求真务实的工作作风,落实好市委市政府和省卫健委各项重点工作,为高质量推进健康三亚的建设提供坚强的组织保障。']</t>
         </is>
